--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_VOC</t>
+  </si>
+  <si>
+    <t>02_taxi_VOC</t>
+  </si>
+  <si>
+    <t>03_van_VOC</t>
+  </si>
+  <si>
+    <t>04_bus_VOC</t>
+  </si>
+  <si>
+    <t>05_LightTruck_VOC</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_VOC</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_VOC</t>
+  </si>
+  <si>
+    <t>Total_VOC (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_VOC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_VOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_VOC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_VOC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_VOC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_VOC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_VOC (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>61.36689974662137</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.04688962935903639</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.05062937477837668</v>
+      </c>
+      <c r="D2">
         <v>16.92839684346852</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>2.290040050921136</v>
+      </c>
+      <c r="F2">
         <v>3.926901438948951</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>51.62876171099875</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H2" t="n">
-        <v>134.3483872549529</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>136.6421670512934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>63.80914250064756</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.04111859805330883</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.04439806711334571</v>
+      </c>
+      <c r="D3">
         <v>15.51769710651281</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.290040050921136</v>
+      </c>
+      <c r="F3">
         <v>3.078291382226933</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>44.50755319913683</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.6194895926399078</v>
       </c>
-      <c r="H3" t="n">
-        <v>127.5732923792174</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>129.8666118991985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>67.27268676999378</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0440041137061726</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.04751372094586118</v>
+      </c>
+      <c r="D4">
         <v>15.28258048368685</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>2.146912547738566</v>
+      </c>
+      <c r="F4">
         <v>3.477637291272589</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>40.05679787922316</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H4" t="n">
-        <v>126.6968788948279</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>128.8473010498062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>66.91745146031724</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0324620510947175</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.03505110561579923</v>
+      </c>
+      <c r="D5">
         <v>14.1069973695571</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>2.146912547738566</v>
+      </c>
+      <c r="F5">
         <v>3.510916117026395</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>30.26513617541304</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H5" t="n">
-        <v>115.2835010589648</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>117.4330026612244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>69.18207655950515</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.038954461313661</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.04206132673895908</v>
+      </c>
+      <c r="D6">
         <v>16.69328022064257</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>2.71942256046885</v>
+      </c>
+      <c r="F6">
         <v>3.011733730719323</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>32.04543830337854</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.3379034141672224</v>
       </c>
-      <c r="H6" t="n">
-        <v>121.3093866897265</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>124.0319161156206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>70.60301779821127</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.03390480892114938</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.03660893253205697</v>
+      </c>
+      <c r="D7">
         <v>17.39863008912042</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F7">
         <v>2.645666647427471</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>25.81438085549937</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H7" t="n">
-        <v>117.2277242632087</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>119.8067234441059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>77.35248868206543</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.03751170348722911</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.04050349982270134</v>
+      </c>
+      <c r="D8">
         <v>16.45816359781661</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>4.866335108207417</v>
+      </c>
+      <c r="F8">
         <v>2.878618427704104</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>16.912870215672</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.6194895926399078</v>
       </c>
-      <c r="H8" t="n">
-        <v>114.2591422193853</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>119.1284691239282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>85.34528314978748</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.03174067218150155</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.03427219215767036</v>
+      </c>
+      <c r="D9">
         <v>15.75281372933875</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>8.873905197319406</v>
+      </c>
+      <c r="F9">
         <v>2.695584886058179</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>16.912870215672</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H9" t="n">
-        <v>121.1325133028997</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>130.0089500201952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>82.01495212156995</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.03606894566079721</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.03894567290644359</v>
+      </c>
+      <c r="D10">
         <v>19.51467969455398</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>10.73456273869283</v>
+      </c>
+      <c r="F10">
         <v>1.447628920290504</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>12.4621148957583</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H10" t="n">
-        <v>115.6443962849171</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>126.3818357508556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>59.32429671598128</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.02957653544185372</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.03193545178328375</v>
+      </c>
+      <c r="D11">
         <v>13.87188074673115</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>8.587650190954262</v>
+      </c>
+      <c r="F11">
         <v>0.7487735794606054</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>10.68181276779284</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H11" t="n">
-        <v>84.82529205249135</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>93.41530115978703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>49.59973011358618</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0324620510947175</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.03505110561579923</v>
+      </c>
+      <c r="D12">
         <v>12.22606438694948</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>6.726992649580839</v>
+      </c>
+      <c r="F12">
         <v>0.6655765150760933</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>13.35226595974105</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H12" t="n">
-        <v>76.10136796922566</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>82.83094967332758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>40.94086944022064</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.02164136739647833</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.02336740374386615</v>
+      </c>
+      <c r="D13">
         <v>9.874898158689964</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>5.009462611389987</v>
+      </c>
+      <c r="F13">
         <v>0.3327882575380466</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>6.231057447879151</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H13" t="n">
-        <v>57.51388914311335</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>62.52507779085073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>31.34951607895419</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0194772306568305</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.02103066336947954</v>
+      </c>
+      <c r="D14">
         <v>5.172565702170932</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>2.290040050921136</v>
+      </c>
+      <c r="F14">
         <v>0.4159853219225585</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>4.450755319913682</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H14" t="n">
-        <v>41.57725136070181</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>43.86884484433559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>18.42783168947024</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.008656546958591332</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.009346961497546463</v>
+      </c>
+      <c r="D15">
         <v>2.821399473911419</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>1.43127503182571</v>
+      </c>
+      <c r="F15">
         <v>0.3327882575380466</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>6.231057447879151</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H15" t="n">
-        <v>27.87805065145199</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>29.31001609781665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>14.83107417899532</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.01659171500396672</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.01791500953696405</v>
+      </c>
+      <c r="D16">
         <v>3.291632719563321</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F16">
         <v>0.1830335416459258</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>7.121208511861893</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H16" t="n">
-        <v>25.49985790276497</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>25.93056370684567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>9.413735706428168</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.02236274630969427</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.02414631720199503</v>
+      </c>
+      <c r="D17">
         <v>1.645816359781661</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.143127503182571</v>
+      </c>
+      <c r="F17">
         <v>0.3827064961687537</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>7.121208511861893</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>18.58582982055017</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>18.73074089462504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>6.438639987887188</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.0194772306568305</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.02103066336947954</v>
+      </c>
+      <c r="D18">
         <v>1.645816359781661</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.143127503182571</v>
+      </c>
+      <c r="F18">
         <v>0.1996729545228281</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>9.791661703810098</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>18.0952682366586</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>18.23994917255383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>6.660662056435021</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.01659171500396672</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.01791500953696405</v>
+      </c>
+      <c r="D19">
         <v>2.351166228259515</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.715637515912855</v>
+      </c>
+      <c r="F19">
         <v>0.3494276704149491</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>8.011359575844635</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>17.38920724595809</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>18.10616805640394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>11.41193432335867</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.01009930478502322</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.01090478841380421</v>
+      </c>
+      <c r="D20">
         <v>3.526749342389274</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F20">
         <v>0.6988553408298982</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>9.791661703810098</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>25.43930001517297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>25.86948800834946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>26.46503057090182</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.008656546958591332</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.009346961497546463</v>
+      </c>
+      <c r="D21">
         <v>8.229081798908307</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>5.4388451209377</v>
+      </c>
+      <c r="F21">
         <v>1.198037727136968</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>25.81438085549937</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H21" t="n">
-        <v>61.7715047350996</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>67.21104027057625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>47.11308294585042</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.02885515652863778</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.03115653832515487</v>
+      </c>
+      <c r="D22">
         <v>14.81234723803494</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>14.02649531189196</v>
+      </c>
+      <c r="F22">
         <v>1.996729545228281</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>40.05679787922316</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H22" t="n">
-        <v>104.2893989433381</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>118.3181956370266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>65.23008373935367</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.01442757826431889</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.01557826916257743</v>
+      </c>
+      <c r="D23">
         <v>9.874898158689964</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>11.73645526097082</v>
+      </c>
+      <c r="F23">
         <v>2.362796628520133</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>36.49619362329221</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H23" t="n">
-        <v>114.5415720850657</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>126.2791780369347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>76.33118716674538</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.01731309391718266</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.01869392299509293</v>
+      </c>
+      <c r="D24">
         <v>12.22606438694948</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>5.152590114572555</v>
+      </c>
+      <c r="F24">
         <v>2.512551344412253</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>50.73861064701601</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H24" t="n">
-        <v>142.2762645245966</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>147.4302354682471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>61.63332622887879</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.03534756674758127</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.03816675944831473</v>
+      </c>
+      <c r="D25">
         <v>15.98793035216471</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>3.864442585929416</v>
+      </c>
+      <c r="F25">
         <v>3.211406685242151</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>59.64012128684332</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H25" t="n">
-        <v>140.7334010626547</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>144.6006628412848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>63.09867188129448</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.038954461313661</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.04206132673895908</v>
+      </c>
+      <c r="D26">
         <v>15.28258048368685</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>2.290040050921136</v>
+      </c>
+      <c r="F26">
         <v>4.193132044979392</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>61.42042341480882</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H26" t="n">
-        <v>144.5969346430286</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>146.890081559375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>61.9885615385553</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.04688962935903639</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.05062937477837668</v>
+      </c>
+      <c r="D27">
         <v>13.63676412390519</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.860657541373423</v>
+      </c>
+      <c r="F27">
         <v>3.477637291272589</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>56.96966809489514</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H27" t="n">
-        <v>136.6263757992381</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>138.4907730860308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>63.27628953613274</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.03606894566079721</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.03894567290644359</v>
+      </c>
+      <c r="D28">
         <v>11.99094776412353</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>2.71942256046885</v>
+      </c>
+      <c r="F28">
         <v>2.945176079211714</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>41.83710000718862</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H28" t="n">
-        <v>120.8177063963464</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>123.5400056840609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>66.96185587402678</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.0324620510947175</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.03505110561579923</v>
+      </c>
+      <c r="D29">
         <v>17.39863008912042</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>3.578187579564276</v>
+      </c>
+      <c r="F29">
         <v>3.361161401134273</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>40.9469489432059</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H29" t="n">
-        <v>129.4331824226111</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>133.0139590566964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>58.7914437514665</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.03101929326828561</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.03349327869954149</v>
+      </c>
+      <c r="D30">
         <v>17.63374671194637</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>2.290040050921136</v>
+      </c>
+      <c r="F30">
         <v>3.06165196935003</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>24.03407872753387</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H30" t="n">
-        <v>104.0024783391213</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>106.2949923754737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>69.13767214579558</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.02380550413612616</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.02570414411825277</v>
+      </c>
+      <c r="D31">
         <v>12.69629763260139</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>2.146912547738566</v>
+      </c>
+      <c r="F31">
         <v>2.995094317842422</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>37.38634468727491</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.8447585354180558</v>
       </c>
-      <c r="H31" t="n">
-        <v>123.0839728230685</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>125.2327840107892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>78.99545198931939</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.03174067218150155</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.03427219215767036</v>
+      </c>
+      <c r="D32">
         <v>15.28258048368685</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>4.723207605024844</v>
+      </c>
+      <c r="F32">
         <v>2.895257840581008</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>30.26513617541304</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H32" t="n">
-        <v>127.9770222824326</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>132.7027614074336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>86.63301114736488</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.02380550413612616</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.02570414411825277</v>
+      </c>
+      <c r="D33">
         <v>11.52071451847164</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>8.015140178223978</v>
+      </c>
+      <c r="F33">
         <v>2.362796628520133</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>15.13256808770652</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H33" t="n">
-        <v>116.0671165360611</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>124.0841553542672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>90.4073863126781</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.01659171500396672</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.01791500953696405</v>
+      </c>
+      <c r="D34">
         <v>13.16653087825329</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>10.30518022914511</v>
+      </c>
+      <c r="F34">
         <v>1.597383636182625</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>8.011359575844635</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H34" t="n">
-        <v>113.4808382964353</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>123.7873418201134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>63.40950277726145</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.01514895717753483</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.01635718262070631</v>
+      </c>
+      <c r="D35">
         <v>10.81536464999378</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>7.728885171858833</v>
+      </c>
+      <c r="F35">
         <v>0.9318071211065307</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>13.35226595974105</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H35" t="n">
-        <v>88.80567564375302</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>96.53576904105503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>56.1271789288925</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.01009930478502322</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.01090478841380421</v>
+      </c>
+      <c r="D36">
         <v>7.2886153076045</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>8.301395184589117</v>
+      </c>
+      <c r="F36">
         <v>0.7321341665837031</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>12.4621148957583</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H36" t="n">
-        <v>77.0143632534858</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>85.31656392170369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>44.89286226037208</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.01009930478502322</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.01090478841380421</v>
+      </c>
+      <c r="D37">
         <v>7.993965176082355</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>4.580080101842273</v>
+      </c>
+      <c r="F37">
         <v>0.6489371021991914</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>8.011359575844635</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H37" t="n">
-        <v>61.78249236206144</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>66.36337794753248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>34.546633866043</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.01731309391718266</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.01869392299509293</v>
+      </c>
+      <c r="D38">
         <v>4.702332456519031</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>2.290040050921136</v>
+      </c>
+      <c r="F38">
         <v>0.4825429734301678</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>8.011359575844635</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H38" t="n">
-        <v>47.87281643714309</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>50.16423731714213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>21.58054506284946</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.01370619935110294</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.01479935570444856</v>
+      </c>
+      <c r="D39">
         <v>3.291632719563321</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.001892522277997</v>
+      </c>
+      <c r="F39">
         <v>0.2495911931535351</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>5.340906383896422</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H39" t="n">
-        <v>30.53269879450838</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>31.53568447313972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>16.38522865883015</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.02957653544185372</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.03193545178328375</v>
+      </c>
+      <c r="D40">
         <v>2.586282851085466</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.5725100127302841</v>
+      </c>
+      <c r="F40">
         <v>0.2329517802766327</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>9.791661703810098</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H40" t="n">
-        <v>29.13833600083328</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>29.71320492990499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>11.72276521932564</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.02236274630969427</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.02414631720199503</v>
+      </c>
+      <c r="D41">
         <v>1.645816359781661</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.143127503182571</v>
+      </c>
+      <c r="F41">
         <v>0.4159853219225585</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>9.791661703810098</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H41" t="n">
-        <v>23.65490858684419</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>23.79981966091906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>8.658860673365529</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.012984820437887</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.01402044224631969</v>
+      </c>
+      <c r="D42">
         <v>2.586282851085466</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.2862550063651421</v>
+      </c>
+      <c r="F42">
         <v>0.2163123673997304</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>8.901510639827364</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>20.37595135211598</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>20.66324198028955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>6.793875297563726</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.01154206261145511</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.01246261533006195</v>
+      </c>
+      <c r="D43">
         <v>2.586282851085466</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.2862550063651421</v>
+      </c>
+      <c r="F43">
         <v>0.2662306060304374</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>12.4621148957583</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H43" t="n">
-        <v>22.17636294874392</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>22.46353850782767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>11.18991225481084</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.009377925871807278</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.01012587495567533</v>
+      </c>
+      <c r="D44">
         <v>2.821399473911419</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F44">
         <v>0.7321341665837031</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>12.4621148957583</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>27.21493871693607</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>27.64506917556765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>26.59824381203054</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.007935168045375389</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.008568048039417589</v>
+      </c>
+      <c r="D45">
         <v>4.46721583369308</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>4.580080101842273</v>
+      </c>
+      <c r="F45">
         <v>1.597383636182625</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>26.7045319194821</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H45" t="n">
-        <v>59.48794484082279</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>64.06865782265911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>48.62283301197569</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.007935168045375389</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.008568048039417589</v>
+      </c>
+      <c r="D46">
         <v>9.639781535864021</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>14.02649531189196</v>
+      </c>
+      <c r="F46">
         <v>2.030008370982086</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>52.51891277498147</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H46" t="n">
-        <v>113.0447398046268</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>127.0718679965128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>66.38459849580241</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.01226344152467105</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.01324152878819082</v>
+      </c>
+      <c r="D47">
         <v>12.22606438694948</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>11.16394524824054</v>
+      </c>
+      <c r="F47">
         <v>2.113205435366598</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>42.72725107117137</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H47" t="n">
-        <v>123.8576034806763</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>135.0225268161803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>73.26728262078527</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.0180344728303986</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.0194728364532218</v>
+      </c>
+      <c r="D48">
         <v>14.1069973695571</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>5.72510012730284</v>
+      </c>
+      <c r="F48">
         <v>2.612387821673666</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>44.50755319913683</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H48" t="n">
-        <v>135.0191106052341</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>140.7456490961597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>61.63332622887879</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.03534756674758127</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.03816675944831473</v>
+      </c>
+      <c r="D49">
         <v>15.98793035216471</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>3.864442585929416</v>
+      </c>
+      <c r="F49">
         <v>3.211406685242151</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>59.64012128684332</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H49" t="n">
-        <v>140.7334010626547</v>
+      <c r="I49">
+        <v>144.6006628412848</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>61.36689974662137</v>
+        <v>88.95532337184162</v>
       </c>
       <c r="C2">
-        <v>0.05062937477837668</v>
+        <v>0.07339058065700341</v>
       </c>
       <c r="D2">
-        <v>16.92839684346852</v>
+        <v>24.5388152504887</v>
       </c>
       <c r="E2">
-        <v>2.290040050921136</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F2">
-        <v>3.926901438948951</v>
+        <v>5.692299738024263</v>
       </c>
       <c r="G2">
-        <v>51.62876171099875</v>
+        <v>74.83925719324773</v>
       </c>
       <c r="H2">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I2">
-        <v>136.6421670512934</v>
+        <v>198.071732586527</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>63.80914250064756</v>
+        <v>92.49551352050386</v>
       </c>
       <c r="C3">
-        <v>0.04439806711334571</v>
+        <v>0.06435789380691068</v>
       </c>
       <c r="D3">
-        <v>15.51769710651281</v>
+        <v>22.49391397961465</v>
       </c>
       <c r="E3">
-        <v>2.290040050921136</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F3">
-        <v>3.078291382226933</v>
+        <v>4.462184116671565</v>
       </c>
       <c r="G3">
-        <v>44.50755319913683</v>
+        <v>64.51660102866182</v>
       </c>
       <c r="H3">
-        <v>0.6194895926399078</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I3">
-        <v>129.8666118991985</v>
+        <v>188.2501235095338</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>67.27268676999378</v>
+        <v>97.51614682224316</v>
       </c>
       <c r="C4">
-        <v>0.04751372094586118</v>
+        <v>0.06887423723195704</v>
       </c>
       <c r="D4">
-        <v>15.28258048368685</v>
+        <v>22.15309710113563</v>
       </c>
       <c r="E4">
-        <v>2.146912547738566</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F4">
-        <v>3.477637291272589</v>
+        <v>5.041062056131657</v>
       </c>
       <c r="G4">
-        <v>40.05679787922316</v>
+        <v>58.06494092579568</v>
       </c>
       <c r="H4">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I4">
-        <v>128.8473010498062</v>
+        <v>186.7725659565451</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>66.91745146031724</v>
+        <v>97.00121007334681</v>
       </c>
       <c r="C5">
-        <v>0.03505110561579923</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D5">
-        <v>14.1069973695571</v>
+        <v>20.44901270874059</v>
       </c>
       <c r="E5">
-        <v>2.146912547738566</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F5">
-        <v>3.510916117026395</v>
+        <v>5.089301884419998</v>
       </c>
       <c r="G5">
-        <v>30.26513617541304</v>
+        <v>43.87128869949005</v>
       </c>
       <c r="H5">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I5">
-        <v>117.4330026612244</v>
+        <v>170.2267960315314</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>69.18207655950515</v>
+        <v>100.2839318475609</v>
       </c>
       <c r="C6">
-        <v>0.04206132673895908</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D6">
-        <v>16.69328022064257</v>
+        <v>24.19799837200969</v>
       </c>
       <c r="E6">
-        <v>2.71942256046885</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F6">
-        <v>3.011733730719323</v>
+        <v>4.365704460094883</v>
       </c>
       <c r="G6">
-        <v>32.04543830337854</v>
+        <v>46.45195274063652</v>
       </c>
       <c r="H6">
-        <v>0.3379034141672224</v>
+        <v>0.4898130360145737</v>
       </c>
       <c r="I6">
-        <v>124.0319161156206</v>
+        <v>179.7923514475996</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>70.60301779821127</v>
+        <v>102.3436788431462</v>
       </c>
       <c r="C7">
-        <v>0.03660893253205697</v>
+        <v>0.05306703524429477</v>
       </c>
       <c r="D7">
-        <v>17.39863008912042</v>
+        <v>25.22044900744672</v>
       </c>
       <c r="E7">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F7">
-        <v>2.645666647427471</v>
+        <v>3.835066348923127</v>
       </c>
       <c r="G7">
-        <v>25.81438085549937</v>
+        <v>37.41962859662387</v>
       </c>
       <c r="H7">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I7">
-        <v>119.8067234441059</v>
+        <v>173.6676591141951</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>77.35248868206543</v>
+        <v>112.1274770721766</v>
       </c>
       <c r="C8">
-        <v>0.04050349982270134</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D8">
-        <v>16.45816359781661</v>
+        <v>23.85718149353069</v>
       </c>
       <c r="E8">
-        <v>4.866335108207417</v>
+        <v>7.054070109027623</v>
       </c>
       <c r="F8">
-        <v>2.878618427704104</v>
+        <v>4.172745146941517</v>
       </c>
       <c r="G8">
-        <v>16.912870215672</v>
+        <v>24.51630839089151</v>
       </c>
       <c r="H8">
-        <v>0.6194895926399078</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I8">
-        <v>119.1284691239282</v>
+        <v>172.6844852431202</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>85.34528314978748</v>
+        <v>123.7135539223441</v>
       </c>
       <c r="C9">
-        <v>0.03427219215767036</v>
+        <v>0.04967977767551</v>
       </c>
       <c r="D9">
-        <v>15.75281372933875</v>
+        <v>22.83473085809366</v>
       </c>
       <c r="E9">
-        <v>8.873905197319406</v>
+        <v>12.86330431646213</v>
       </c>
       <c r="F9">
-        <v>2.695584886058179</v>
+        <v>3.907426091355639</v>
       </c>
       <c r="G9">
-        <v>16.912870215672</v>
+        <v>24.51630839089151</v>
       </c>
       <c r="H9">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I9">
-        <v>130.0089500201952</v>
+        <v>188.4564518988395</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>82.01495212156995</v>
+        <v>118.8860219014409</v>
       </c>
       <c r="C10">
-        <v>0.03894567290644359</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D10">
-        <v>19.51467969455398</v>
+        <v>28.28780091375781</v>
       </c>
       <c r="E10">
-        <v>10.73456273869283</v>
+        <v>15.56044876991387</v>
       </c>
       <c r="F10">
-        <v>1.447628920290504</v>
+        <v>2.098432530542844</v>
       </c>
       <c r="G10">
-        <v>12.4621148957583</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="H10">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I10">
-        <v>126.3818357508556</v>
+        <v>183.1987132145012</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>59.32429671598128</v>
+        <v>85.99443706568766</v>
       </c>
       <c r="C11">
-        <v>0.03193545178328375</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D11">
-        <v>13.87188074673115</v>
+        <v>20.10819583026158</v>
       </c>
       <c r="E11">
-        <v>8.587650190954262</v>
+        <v>12.44835901593109</v>
       </c>
       <c r="F11">
-        <v>0.7487735794606054</v>
+        <v>1.085396136487678</v>
       </c>
       <c r="G11">
-        <v>10.68181276779284</v>
+        <v>15.48398424687885</v>
       </c>
       <c r="H11">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I11">
-        <v>93.41530115978703</v>
+        <v>135.4115713333609</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>49.59973011358618</v>
+        <v>71.89804356465054</v>
       </c>
       <c r="C12">
-        <v>0.03505110561579923</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D12">
-        <v>12.22606438694948</v>
+        <v>17.72247768090852</v>
       </c>
       <c r="E12">
-        <v>6.726992649580839</v>
+        <v>9.751214562479355</v>
       </c>
       <c r="F12">
-        <v>0.6655765150760933</v>
+        <v>0.9647965657668247</v>
       </c>
       <c r="G12">
-        <v>13.35226595974105</v>
+        <v>19.35498030859853</v>
       </c>
       <c r="H12">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I12">
-        <v>82.83094967332758</v>
+        <v>120.0688635699453</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>40.94086944022064</v>
+        <v>59.34646031030243</v>
       </c>
       <c r="C13">
-        <v>0.02336740374386615</v>
+        <v>0.03387257568784773</v>
       </c>
       <c r="D13">
-        <v>9.874898158689964</v>
+        <v>14.31430889611841</v>
       </c>
       <c r="E13">
-        <v>5.009462611389987</v>
+        <v>7.261542759293137</v>
       </c>
       <c r="F13">
-        <v>0.3327882575380466</v>
+        <v>0.4823982828834124</v>
       </c>
       <c r="G13">
-        <v>6.231057447879151</v>
+        <v>9.032324144012657</v>
       </c>
       <c r="H13">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I13">
-        <v>62.52507779085073</v>
+        <v>90.63417798030275</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>31.34951607895419</v>
+        <v>45.44316809010144</v>
       </c>
       <c r="C14">
-        <v>0.02103066336947954</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D14">
-        <v>5.172565702170932</v>
+        <v>7.497971326538217</v>
       </c>
       <c r="E14">
-        <v>2.290040050921136</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F14">
-        <v>0.4159853219225585</v>
+        <v>0.6029978536042653</v>
       </c>
       <c r="G14">
-        <v>4.450755319913682</v>
+        <v>6.451660102866185</v>
       </c>
       <c r="H14">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I14">
-        <v>43.86884484433559</v>
+        <v>63.59075161348474</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>18.42783168947024</v>
+        <v>26.71234384899728</v>
       </c>
       <c r="C15">
-        <v>0.009346961497546463</v>
+        <v>0.01354903027513909</v>
       </c>
       <c r="D15">
-        <v>2.821399473911419</v>
+        <v>4.089802541748119</v>
       </c>
       <c r="E15">
-        <v>1.43127503182571</v>
+        <v>2.074726502655181</v>
       </c>
       <c r="F15">
-        <v>0.3327882575380466</v>
+        <v>0.4823982828834124</v>
       </c>
       <c r="G15">
-        <v>6.231057447879151</v>
+        <v>9.032324144012657</v>
       </c>
       <c r="H15">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I15">
-        <v>29.31001609781665</v>
+        <v>42.48677985657422</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>14.83107417899532</v>
+        <v>21.49860926642192</v>
       </c>
       <c r="C16">
-        <v>0.01791500953696405</v>
+        <v>0.02596897469401659</v>
       </c>
       <c r="D16">
-        <v>3.291632719563321</v>
+        <v>4.771436298706138</v>
       </c>
       <c r="E16">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F16">
-        <v>0.1830335416459258</v>
+        <v>0.2653190555858769</v>
       </c>
       <c r="G16">
-        <v>7.121208511861893</v>
+        <v>10.32265616458589</v>
       </c>
       <c r="H16">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I16">
-        <v>25.93056370684567</v>
+        <v>37.58804321679281</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>9.413735706428168</v>
+        <v>13.64582384575283</v>
       </c>
       <c r="C17">
-        <v>0.02414631720199503</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D17">
-        <v>1.645816359781661</v>
+        <v>2.385718149353069</v>
       </c>
       <c r="E17">
-        <v>0.143127503182571</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F17">
-        <v>0.3827064961687537</v>
+        <v>0.5547580253159241</v>
       </c>
       <c r="G17">
-        <v>7.121208511861893</v>
+        <v>10.32265616458589</v>
       </c>
       <c r="I17">
-        <v>18.73074089462504</v>
+        <v>27.15143049681734</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>6.438639987887188</v>
+        <v>9.333228573746043</v>
       </c>
       <c r="C18">
-        <v>0.02103066336947954</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D18">
-        <v>1.645816359781661</v>
+        <v>2.385718149353069</v>
       </c>
       <c r="E18">
-        <v>0.143127503182571</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F18">
-        <v>0.1996729545228281</v>
+        <v>0.2894389697300475</v>
       </c>
       <c r="G18">
-        <v>9.791661703810098</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="I18">
-        <v>18.23994917255383</v>
+        <v>26.43999588751934</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>6.660662056435021</v>
+        <v>9.655064041806241</v>
       </c>
       <c r="C19">
-        <v>0.01791500953696405</v>
+        <v>0.02596897469401659</v>
       </c>
       <c r="D19">
-        <v>2.351166228259515</v>
+        <v>3.4081687847901</v>
       </c>
       <c r="E19">
-        <v>0.715637515912855</v>
+        <v>1.03736325132759</v>
       </c>
       <c r="F19">
-        <v>0.3494276704149491</v>
+        <v>0.5065181970275828</v>
       </c>
       <c r="G19">
-        <v>8.011359575844635</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="I19">
-        <v>18.10616805640394</v>
+        <v>26.24607143480466</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>11.41193432335867</v>
+        <v>16.5423430582947</v>
       </c>
       <c r="C20">
-        <v>0.01090478841380421</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D20">
-        <v>3.526749342389274</v>
+        <v>5.112253177185147</v>
       </c>
       <c r="E20">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F20">
-        <v>0.6988553408298982</v>
+        <v>1.013036394055166</v>
       </c>
       <c r="G20">
-        <v>9.791661703810098</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="I20">
-        <v>25.86948800834946</v>
+        <v>37.49951000862483</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>26.46503057090182</v>
+        <v>38.36278779277683</v>
       </c>
       <c r="C21">
-        <v>0.009346961497546463</v>
+        <v>0.01354903027513909</v>
       </c>
       <c r="D21">
-        <v>8.229081798908307</v>
+        <v>11.92859074676534</v>
       </c>
       <c r="E21">
-        <v>5.4388451209377</v>
+        <v>7.88396071008969</v>
       </c>
       <c r="F21">
-        <v>1.198037727136968</v>
+        <v>1.736633818380284</v>
       </c>
       <c r="G21">
-        <v>25.81438085549937</v>
+        <v>37.41962859662387</v>
       </c>
       <c r="H21">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I21">
-        <v>67.21104027057625</v>
+        <v>97.42678620091358</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>47.11308294585042</v>
+        <v>68.29348632237621</v>
       </c>
       <c r="C22">
-        <v>0.03115653832515487</v>
+        <v>0.04516343425046363</v>
       </c>
       <c r="D22">
-        <v>14.81234723803494</v>
+        <v>21.47146334417763</v>
       </c>
       <c r="E22">
-        <v>14.02649531189196</v>
+        <v>20.33231972602078</v>
       </c>
       <c r="F22">
-        <v>1.996729545228281</v>
+        <v>2.894389697300474</v>
       </c>
       <c r="G22">
-        <v>40.05679787922316</v>
+        <v>58.06494092579568</v>
       </c>
       <c r="H22">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I22">
-        <v>118.3181956370266</v>
+        <v>171.5099409799334</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>65.23008373935367</v>
+        <v>94.55526051608919</v>
       </c>
       <c r="C23">
-        <v>0.01557826916257743</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D23">
-        <v>9.874898158689964</v>
+        <v>14.31430889611841</v>
       </c>
       <c r="E23">
-        <v>11.73645526097082</v>
+        <v>17.01275732177249</v>
       </c>
       <c r="F23">
-        <v>2.362796628520133</v>
+        <v>3.425027808472227</v>
       </c>
       <c r="G23">
-        <v>36.49619362329221</v>
+        <v>52.9036128435027</v>
       </c>
       <c r="H23">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I23">
-        <v>126.2791780369347</v>
+        <v>183.0499041631046</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>76.33118716674538</v>
+        <v>110.6470339190996</v>
       </c>
       <c r="C24">
-        <v>0.01869392299509293</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D24">
-        <v>12.22606438694948</v>
+        <v>17.72247768090852</v>
       </c>
       <c r="E24">
-        <v>5.152590114572555</v>
+        <v>7.469015409558653</v>
       </c>
       <c r="F24">
-        <v>2.512551344412253</v>
+        <v>3.642107035769762</v>
       </c>
       <c r="G24">
-        <v>50.73861064701601</v>
+        <v>73.5489251726745</v>
       </c>
       <c r="H24">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I24">
-        <v>147.4302354682471</v>
+        <v>213.7097413265808</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>61.63332622887879</v>
+        <v>89.34152593351384</v>
       </c>
       <c r="C25">
-        <v>0.03816675944831473</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D25">
-        <v>15.98793035216471</v>
+        <v>23.17554773657266</v>
       </c>
       <c r="E25">
-        <v>3.864442585929416</v>
+        <v>5.601761557168988</v>
       </c>
       <c r="F25">
-        <v>3.211406685242151</v>
+        <v>4.655143429824929</v>
       </c>
       <c r="G25">
-        <v>59.64012128684332</v>
+        <v>86.45224537840684</v>
       </c>
       <c r="H25">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I25">
-        <v>144.6006628412848</v>
+        <v>209.6080912664538</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>63.09867188129448</v>
+        <v>91.46564002271121</v>
       </c>
       <c r="C26">
-        <v>0.04206132673895908</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D26">
-        <v>15.28258048368685</v>
+        <v>22.15309710113563</v>
       </c>
       <c r="E26">
-        <v>2.290040050921136</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F26">
-        <v>4.193132044979392</v>
+        <v>6.078218364330996</v>
       </c>
       <c r="G26">
-        <v>61.42042341480882</v>
+        <v>89.03290941955338</v>
       </c>
       <c r="H26">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I26">
-        <v>146.890081559375</v>
+        <v>212.9267530082419</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>61.9885615385553</v>
+        <v>89.85646268241024</v>
       </c>
       <c r="C27">
-        <v>0.05062937477837668</v>
+        <v>0.07339058065700341</v>
       </c>
       <c r="D27">
-        <v>13.63676412390519</v>
+        <v>19.76737895178258</v>
       </c>
       <c r="E27">
-        <v>1.860657541373423</v>
+        <v>2.697144453451737</v>
       </c>
       <c r="F27">
-        <v>3.477637291272589</v>
+        <v>5.041062056131657</v>
       </c>
       <c r="G27">
-        <v>56.96966809489514</v>
+        <v>82.58124931668709</v>
       </c>
       <c r="H27">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I27">
-        <v>138.4907730860308</v>
+        <v>200.7514075951422</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>63.27628953613274</v>
+        <v>91.72310839715935</v>
       </c>
       <c r="C28">
-        <v>0.03894567290644359</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D28">
-        <v>11.99094776412353</v>
+        <v>17.3816608024295</v>
       </c>
       <c r="E28">
-        <v>2.71942256046885</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F28">
-        <v>2.945176079211714</v>
+        <v>4.2692248035182</v>
       </c>
       <c r="G28">
-        <v>41.83710000718862</v>
+        <v>60.6456049669421</v>
       </c>
       <c r="H28">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I28">
-        <v>123.5400056840609</v>
+        <v>179.0792951959387</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>66.96185587402678</v>
+        <v>97.06557716695883</v>
       </c>
       <c r="C29">
-        <v>0.03505110561579923</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D29">
-        <v>17.39863008912042</v>
+        <v>25.22044900744672</v>
       </c>
       <c r="E29">
-        <v>3.578187579564276</v>
+        <v>5.186816256637959</v>
       </c>
       <c r="F29">
-        <v>3.361161401134273</v>
+        <v>4.872222657122462</v>
       </c>
       <c r="G29">
-        <v>40.9469489432059</v>
+        <v>59.3552729463689</v>
       </c>
       <c r="H29">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I29">
-        <v>133.0139590566964</v>
+        <v>192.8124084760982</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>58.7914437514665</v>
+        <v>85.22203194234318</v>
       </c>
       <c r="C30">
-        <v>0.03349327869954149</v>
+        <v>0.04855069181924841</v>
       </c>
       <c r="D30">
-        <v>17.63374671194637</v>
+        <v>25.56126588592574</v>
       </c>
       <c r="E30">
-        <v>2.290040050921136</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F30">
-        <v>3.06165196935003</v>
+        <v>4.438064202527393</v>
       </c>
       <c r="G30">
-        <v>24.03407872753387</v>
+        <v>34.8389645554774</v>
       </c>
       <c r="H30">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I30">
-        <v>106.2949923754737</v>
+        <v>154.0815237303607</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>69.13767214579558</v>
+        <v>100.2195647539488</v>
       </c>
       <c r="C31">
-        <v>0.02570414411825277</v>
+        <v>0.0372598332566325</v>
       </c>
       <c r="D31">
-        <v>12.69629763260139</v>
+        <v>18.40411143786654</v>
       </c>
       <c r="E31">
-        <v>2.146912547738566</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F31">
-        <v>2.995094317842422</v>
+        <v>4.341584545950711</v>
       </c>
       <c r="G31">
-        <v>37.38634468727491</v>
+        <v>54.19394486407597</v>
       </c>
       <c r="H31">
-        <v>0.8447585354180558</v>
+        <v>1.224532590036434</v>
       </c>
       <c r="I31">
-        <v>125.2327840107892</v>
+        <v>181.5330877791179</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>78.99545198931939</v>
+        <v>114.5090595358221</v>
       </c>
       <c r="C32">
-        <v>0.03427219215767036</v>
+        <v>0.04967977767551</v>
       </c>
       <c r="D32">
-        <v>15.28258048368685</v>
+        <v>22.15309710113563</v>
       </c>
       <c r="E32">
-        <v>4.723207605024844</v>
+        <v>6.8465974587621</v>
       </c>
       <c r="F32">
-        <v>2.895257840581008</v>
+        <v>4.196865061085687</v>
       </c>
       <c r="G32">
-        <v>30.26513617541304</v>
+        <v>43.87128869949005</v>
       </c>
       <c r="H32">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I32">
-        <v>132.7027614074336</v>
+        <v>192.361307187993</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>86.63301114736488</v>
+        <v>125.5801996370933</v>
       </c>
       <c r="C33">
-        <v>0.02570414411825277</v>
+        <v>0.0372598332566325</v>
       </c>
       <c r="D33">
-        <v>11.52071451847164</v>
+        <v>16.70002704547149</v>
       </c>
       <c r="E33">
-        <v>8.015140178223978</v>
+        <v>11.61846841486902</v>
       </c>
       <c r="F33">
-        <v>2.362796628520133</v>
+        <v>3.425027808472227</v>
       </c>
       <c r="G33">
-        <v>15.13256808770652</v>
+        <v>21.93564434974503</v>
       </c>
       <c r="H33">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I33">
-        <v>124.0841553542672</v>
+        <v>179.8680756309247</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>90.4073863126781</v>
+        <v>131.0514025941169</v>
       </c>
       <c r="C34">
-        <v>0.01791500953696405</v>
+        <v>0.02596897469401659</v>
       </c>
       <c r="D34">
-        <v>13.16653087825329</v>
+        <v>19.08574519482455</v>
       </c>
       <c r="E34">
-        <v>10.30518022914511</v>
+        <v>14.93803081911731</v>
       </c>
       <c r="F34">
-        <v>1.597383636182625</v>
+        <v>2.31551175784038</v>
       </c>
       <c r="G34">
-        <v>8.011359575844635</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="H34">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I34">
-        <v>123.7873418201134</v>
+        <v>179.4378250557644</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>63.40950277726145</v>
+        <v>91.9162096779955</v>
       </c>
       <c r="C35">
-        <v>0.01635718262070631</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D35">
-        <v>10.81536464999378</v>
+        <v>15.67757641003445</v>
       </c>
       <c r="E35">
-        <v>7.728885171858833</v>
+        <v>11.20352311433798</v>
       </c>
       <c r="F35">
-        <v>0.9318071211065307</v>
+        <v>1.350715192073554</v>
       </c>
       <c r="G35">
-        <v>13.35226595974105</v>
+        <v>19.35498030859853</v>
       </c>
       <c r="H35">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I35">
-        <v>96.53576904105503</v>
+        <v>139.9348930360337</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>56.1271789288925</v>
+        <v>81.36000632562067</v>
       </c>
       <c r="C36">
-        <v>0.01090478841380421</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D36">
-        <v>7.2886153076045</v>
+        <v>10.56532323284931</v>
       </c>
       <c r="E36">
-        <v>8.301395184589117</v>
+        <v>12.03341371540005</v>
       </c>
       <c r="F36">
-        <v>0.7321341665837031</v>
+        <v>1.061276222343508</v>
       </c>
       <c r="G36">
-        <v>12.4621148957583</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="H36">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I36">
-        <v>85.31656392170369</v>
+        <v>123.6719235282435</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>44.89286226037208</v>
+        <v>65.07513164177414</v>
       </c>
       <c r="C37">
-        <v>0.01090478841380421</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D37">
-        <v>7.993965176082355</v>
+        <v>11.58777386828633</v>
       </c>
       <c r="E37">
-        <v>4.580080101842273</v>
+        <v>6.639124808496578</v>
       </c>
       <c r="F37">
-        <v>0.6489371021991914</v>
+        <v>0.9406766516226541</v>
       </c>
       <c r="G37">
-        <v>8.011359575844635</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="H37">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I37">
-        <v>66.36337794753248</v>
+        <v>96.19804438133619</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>34.546633866043</v>
+        <v>50.07759883016843</v>
       </c>
       <c r="C38">
-        <v>0.01869392299509293</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D38">
-        <v>4.702332456519031</v>
+        <v>6.8163375695802</v>
       </c>
       <c r="E38">
-        <v>2.290040050921136</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F38">
-        <v>0.4825429734301678</v>
+        <v>0.6994775101809475</v>
       </c>
       <c r="G38">
-        <v>8.011359575844635</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="H38">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I38">
-        <v>50.16423731714213</v>
+        <v>72.71633357189212</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>21.58054506284946</v>
+        <v>31.28240749545226</v>
       </c>
       <c r="C39">
-        <v>0.01479935570444856</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D39">
-        <v>3.291632719563321</v>
+        <v>4.771436298706138</v>
       </c>
       <c r="E39">
-        <v>1.001892522277997</v>
+        <v>1.452308551858627</v>
       </c>
       <c r="F39">
-        <v>0.2495911931535351</v>
+        <v>0.3617987121625592</v>
       </c>
       <c r="G39">
-        <v>5.340906383896422</v>
+        <v>7.741992123439425</v>
       </c>
       <c r="H39">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I39">
-        <v>31.53568447313972</v>
+        <v>45.71303131889041</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>16.38522865883015</v>
+        <v>23.75145754284338</v>
       </c>
       <c r="C40">
-        <v>0.03193545178328375</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D40">
-        <v>2.586282851085466</v>
+        <v>3.748985663269108</v>
       </c>
       <c r="E40">
-        <v>0.5725100127302841</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F40">
-        <v>0.2329517802766327</v>
+        <v>0.3376787980183886</v>
       </c>
       <c r="G40">
-        <v>9.791661703810098</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="H40">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I40">
-        <v>29.71320492990499</v>
+        <v>43.07122836361012</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>11.72276521932564</v>
+        <v>16.99291271357901</v>
       </c>
       <c r="C41">
-        <v>0.02414631720199503</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D41">
-        <v>1.645816359781661</v>
+        <v>2.385718149353069</v>
       </c>
       <c r="E41">
-        <v>0.143127503182571</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F41">
-        <v>0.4159853219225585</v>
+        <v>0.6029978536042653</v>
       </c>
       <c r="G41">
-        <v>9.791661703810098</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="H41">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I41">
-        <v>23.79981966091906</v>
+        <v>34.49939076065399</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>8.658860673365529</v>
+        <v>12.55158325434813</v>
       </c>
       <c r="C42">
-        <v>0.01402044224631969</v>
+        <v>0.02032354541270864</v>
       </c>
       <c r="D42">
-        <v>2.586282851085466</v>
+        <v>3.748985663269108</v>
       </c>
       <c r="E42">
-        <v>0.2862550063651421</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F42">
-        <v>0.2163123673997304</v>
+        <v>0.3135588838742179</v>
       </c>
       <c r="G42">
-        <v>8.901510639827364</v>
+        <v>12.90332020573237</v>
       </c>
       <c r="I42">
-        <v>20.66324198028955</v>
+        <v>29.95271685316757</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>6.793875297563726</v>
+        <v>9.848165322642378</v>
       </c>
       <c r="C43">
-        <v>0.01246261533006195</v>
+        <v>0.01806537370018545</v>
       </c>
       <c r="D43">
-        <v>2.586282851085466</v>
+        <v>3.748985663269108</v>
       </c>
       <c r="E43">
-        <v>0.2862550063651421</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F43">
-        <v>0.2662306060304374</v>
+        <v>0.3859186263067298</v>
       </c>
       <c r="G43">
-        <v>12.4621148957583</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="H43">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I43">
-        <v>22.46353850782767</v>
+        <v>32.56236408047718</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>11.18991225481084</v>
+        <v>16.2205075902345</v>
       </c>
       <c r="C44">
-        <v>0.01012587495567533</v>
+        <v>0.01467811613140068</v>
       </c>
       <c r="D44">
-        <v>2.821399473911419</v>
+        <v>4.089802541748119</v>
       </c>
       <c r="E44">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F44">
-        <v>0.7321341665837031</v>
+        <v>1.061276222343508</v>
       </c>
       <c r="G44">
-        <v>12.4621148957583</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="I44">
-        <v>27.64506917556765</v>
+        <v>40.07333070927939</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>26.59824381203054</v>
+        <v>38.55588907361295</v>
       </c>
       <c r="C45">
-        <v>0.008568048039417589</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D45">
-        <v>4.46721583369308</v>
+        <v>6.475520691101187</v>
       </c>
       <c r="E45">
-        <v>4.580080101842273</v>
+        <v>6.639124808496578</v>
       </c>
       <c r="F45">
-        <v>1.597383636182625</v>
+        <v>2.31551175784038</v>
       </c>
       <c r="G45">
-        <v>26.7045319194821</v>
+        <v>38.70996061719707</v>
       </c>
       <c r="H45">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I45">
-        <v>64.06865782265911</v>
+        <v>92.87169790467189</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>48.62283301197569</v>
+        <v>70.48196750518564</v>
       </c>
       <c r="C46">
-        <v>0.008568048039417589</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D46">
-        <v>9.639781535864021</v>
+        <v>13.9734920176394</v>
       </c>
       <c r="E46">
-        <v>14.02649531189196</v>
+        <v>20.33231972602078</v>
       </c>
       <c r="F46">
-        <v>2.030008370982086</v>
+        <v>2.942629525588814</v>
       </c>
       <c r="G46">
-        <v>52.51891277498147</v>
+        <v>76.12958921382096</v>
       </c>
       <c r="H46">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I46">
-        <v>127.0718679965128</v>
+        <v>184.1989599566842</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>66.38459849580241</v>
+        <v>96.22880495000226</v>
       </c>
       <c r="C47">
-        <v>0.01324152878819082</v>
+        <v>0.01919445955644704</v>
       </c>
       <c r="D47">
-        <v>12.22606438694948</v>
+        <v>17.72247768090852</v>
       </c>
       <c r="E47">
-        <v>11.16394524824054</v>
+        <v>16.18286672071042</v>
       </c>
       <c r="F47">
-        <v>2.113205435366598</v>
+        <v>3.063229096309667</v>
       </c>
       <c r="G47">
-        <v>42.72725107117137</v>
+        <v>61.9359369875154</v>
       </c>
       <c r="H47">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I47">
-        <v>135.0225268161803</v>
+        <v>195.7239584370197</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>73.26728262078527</v>
+        <v>106.2057044598687</v>
       </c>
       <c r="C48">
-        <v>0.0194728364532218</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D48">
-        <v>14.1069973695571</v>
+        <v>20.44901270874059</v>
       </c>
       <c r="E48">
-        <v>5.72510012730284</v>
+        <v>8.298906010620723</v>
       </c>
       <c r="F48">
-        <v>2.612387821673666</v>
+        <v>3.786826520634785</v>
       </c>
       <c r="G48">
-        <v>44.50755319913683</v>
+        <v>64.51660102866182</v>
       </c>
       <c r="H48">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I48">
-        <v>140.7456490961597</v>
+        <v>204.0199974289551</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>61.63332622887879</v>
+        <v>89.34152593351384</v>
       </c>
       <c r="C49">
-        <v>0.03816675944831473</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D49">
-        <v>15.98793035216471</v>
+        <v>23.17554773657266</v>
       </c>
       <c r="E49">
-        <v>3.864442585929416</v>
+        <v>5.601761557168988</v>
       </c>
       <c r="F49">
-        <v>3.211406685242151</v>
+        <v>4.655143429824929</v>
       </c>
       <c r="G49">
-        <v>59.64012128684332</v>
+        <v>86.45224537840684</v>
       </c>
       <c r="H49">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I49">
-        <v>144.6006628412848</v>
+        <v>209.6080912664538</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>88.95532337184162</v>
+        <v>60.45973688080172</v>
       </c>
       <c r="C2">
-        <v>0.07339058065700341</v>
+        <v>0.04988094054252241</v>
       </c>
       <c r="D2">
-        <v>24.5388152504887</v>
+        <v>16.67815097708681</v>
       </c>
       <c r="E2">
-        <v>3.319562404248289</v>
+        <v>2.256187284950998</v>
       </c>
       <c r="F2">
-        <v>5.692299738024263</v>
+        <v>3.868851591590576</v>
       </c>
       <c r="G2">
-        <v>74.83925719324773</v>
+        <v>50.86555392918397</v>
       </c>
       <c r="H2">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I2">
-        <v>198.071732586527</v>
+        <v>134.6222393644481</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>92.49551352050386</v>
+        <v>62.86587691585534</v>
       </c>
       <c r="C3">
-        <v>0.06435789380691068</v>
+        <v>0.0437417478603658</v>
       </c>
       <c r="D3">
-        <v>22.49391397961465</v>
+        <v>15.28830506232957</v>
       </c>
       <c r="E3">
-        <v>3.319562404248289</v>
+        <v>2.256187284950998</v>
       </c>
       <c r="F3">
-        <v>4.462184116671565</v>
+        <v>3.032786205272274</v>
       </c>
       <c r="G3">
-        <v>64.51660102866182</v>
+        <v>43.84961545619305</v>
       </c>
       <c r="H3">
-        <v>0.8979905660267186</v>
+        <v>0.6103319204008828</v>
       </c>
       <c r="I3">
-        <v>188.2501235095338</v>
+        <v>127.9468445928625</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>97.51614682224316</v>
+        <v>66.27822096556774</v>
       </c>
       <c r="C4">
-        <v>0.06887423723195704</v>
+        <v>0.04681134420144411</v>
       </c>
       <c r="D4">
-        <v>22.15309710113563</v>
+        <v>15.0566640765367</v>
       </c>
       <c r="E4">
-        <v>3.112089753982771</v>
+        <v>2.115175579641561</v>
       </c>
       <c r="F4">
-        <v>5.041062056131657</v>
+        <v>3.426228740010298</v>
       </c>
       <c r="G4">
-        <v>58.06494092579568</v>
+        <v>39.46465391057373</v>
       </c>
       <c r="H4">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I4">
-        <v>186.7725659565451</v>
+        <v>126.9426018168959</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>97.00121007334681</v>
+        <v>65.92823696046904</v>
       </c>
       <c r="C5">
-        <v>0.05080886353177159</v>
+        <v>0.03453295883713089</v>
       </c>
       <c r="D5">
-        <v>20.44901270874059</v>
+        <v>13.89845914757234</v>
       </c>
       <c r="E5">
-        <v>3.112089753982771</v>
+        <v>2.115175579641561</v>
       </c>
       <c r="F5">
-        <v>5.089301884419998</v>
+        <v>3.459015617905134</v>
       </c>
       <c r="G5">
-        <v>43.87128869949005</v>
+        <v>29.8177385102113</v>
       </c>
       <c r="H5">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I5">
-        <v>170.2267960315314</v>
+        <v>115.6970365349281</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>100.2839318475609</v>
+        <v>68.15938499297332</v>
       </c>
       <c r="C6">
-        <v>0.0609706362381259</v>
+        <v>0.04143955060455708</v>
       </c>
       <c r="D6">
-        <v>24.19799837200969</v>
+        <v>16.44650999129394</v>
       </c>
       <c r="E6">
-        <v>3.941980355044845</v>
+        <v>2.679222400879311</v>
       </c>
       <c r="F6">
-        <v>4.365704460094883</v>
+        <v>2.967212449482603</v>
       </c>
       <c r="G6">
-        <v>46.45195274063652</v>
+        <v>31.57172312845901</v>
       </c>
       <c r="H6">
-        <v>0.4898130360145737</v>
+        <v>0.3329083202186633</v>
       </c>
       <c r="I6">
-        <v>179.7923514475996</v>
+        <v>122.1984008339114</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>102.3436788431462</v>
+        <v>69.55932101336816</v>
       </c>
       <c r="C7">
-        <v>0.05306703524429477</v>
+        <v>0.03606775700767004</v>
       </c>
       <c r="D7">
-        <v>25.22044900744672</v>
+        <v>17.14143294867254</v>
       </c>
       <c r="E7">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F7">
-        <v>3.835066348923127</v>
+        <v>2.606556792639413</v>
       </c>
       <c r="G7">
-        <v>37.41962859662387</v>
+        <v>25.43277696459198</v>
       </c>
       <c r="H7">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I7">
-        <v>173.6676591141951</v>
+        <v>118.0356675323234</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>112.1274770721766</v>
+        <v>76.20901711024355</v>
       </c>
       <c r="C8">
-        <v>0.05871246452560273</v>
+        <v>0.03990475243401792</v>
       </c>
       <c r="D8">
-        <v>23.85718149353069</v>
+        <v>16.21486900550106</v>
       </c>
       <c r="E8">
-        <v>7.054070109027623</v>
+        <v>4.79439798052087</v>
       </c>
       <c r="F8">
-        <v>4.172745146941517</v>
+        <v>2.836064937903262</v>
       </c>
       <c r="G8">
-        <v>24.51630839089151</v>
+        <v>16.66285387335337</v>
       </c>
       <c r="H8">
-        <v>0.8979905660267186</v>
+        <v>0.6103319204008828</v>
       </c>
       <c r="I8">
-        <v>172.6844852431202</v>
+        <v>117.367439580357</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>123.7135539223441</v>
+        <v>84.08365722496447</v>
       </c>
       <c r="C9">
-        <v>0.04967977767551</v>
+        <v>0.03376555975186132</v>
       </c>
       <c r="D9">
-        <v>22.83473085809366</v>
+        <v>15.51994604812244</v>
       </c>
       <c r="E9">
-        <v>12.86330431646213</v>
+        <v>8.742725729185118</v>
       </c>
       <c r="F9">
-        <v>3.907426091355639</v>
+        <v>2.655737109481668</v>
       </c>
       <c r="G9">
-        <v>24.51630839089151</v>
+        <v>16.66285387335337</v>
       </c>
       <c r="H9">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I9">
-        <v>188.4564518988395</v>
+        <v>128.087078585114</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>118.8860219014409</v>
+        <v>80.80255717716415</v>
       </c>
       <c r="C10">
-        <v>0.05645429281307954</v>
+        <v>0.03836995426347878</v>
       </c>
       <c r="D10">
-        <v>28.28780091375781</v>
+        <v>19.22620182080841</v>
       </c>
       <c r="E10">
-        <v>15.56044876991387</v>
+        <v>10.57587789820781</v>
       </c>
       <c r="F10">
-        <v>2.098432530542844</v>
+        <v>1.426229188425339</v>
       </c>
       <c r="G10">
-        <v>18.06464828802531</v>
+        <v>12.27789232773407</v>
       </c>
       <c r="H10">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I10">
-        <v>183.1987132145012</v>
+        <v>124.5135825267126</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>85.99443706568766</v>
+        <v>58.44732885148417</v>
       </c>
       <c r="C11">
-        <v>0.04629252010672522</v>
+        <v>0.03146336249605259</v>
       </c>
       <c r="D11">
-        <v>20.10819583026158</v>
+        <v>13.66681816177947</v>
       </c>
       <c r="E11">
-        <v>12.44835901593109</v>
+        <v>8.460702318566245</v>
       </c>
       <c r="F11">
-        <v>1.085396136487678</v>
+        <v>0.7377047526337963</v>
       </c>
       <c r="G11">
-        <v>15.48398424687885</v>
+        <v>10.52390770948634</v>
       </c>
       <c r="H11">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I11">
-        <v>135.4115713333609</v>
+        <v>92.0343793165554</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>71.89804356465054</v>
+        <v>48.86651671190707</v>
       </c>
       <c r="C12">
-        <v>0.05080886353177159</v>
+        <v>0.03453295883713089</v>
       </c>
       <c r="D12">
-        <v>17.72247768090852</v>
+        <v>12.04533126122936</v>
       </c>
       <c r="E12">
-        <v>9.751214562479355</v>
+        <v>6.627550149543556</v>
       </c>
       <c r="F12">
-        <v>0.9647965657668247</v>
+        <v>0.6557375578967077</v>
       </c>
       <c r="G12">
-        <v>19.35498030859853</v>
+        <v>13.15488463685794</v>
       </c>
       <c r="H12">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I12">
-        <v>120.0688635699453</v>
+        <v>81.60649215641753</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>59.34646031030243</v>
+        <v>40.33565658762606</v>
       </c>
       <c r="C13">
-        <v>0.03387257568784773</v>
+        <v>0.02302197255808727</v>
       </c>
       <c r="D13">
-        <v>14.31430889611841</v>
+        <v>9.728921403300632</v>
       </c>
       <c r="E13">
-        <v>7.261542759293137</v>
+        <v>4.93540968583031</v>
       </c>
       <c r="F13">
-        <v>0.4823982828834124</v>
+        <v>0.3278687789483539</v>
       </c>
       <c r="G13">
-        <v>9.032324144012657</v>
+        <v>6.138946163867033</v>
       </c>
       <c r="H13">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I13">
-        <v>90.63417798030275</v>
+        <v>61.60079403220336</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>45.44316809010144</v>
+        <v>30.88608844996096</v>
       </c>
       <c r="C14">
-        <v>0.03048531811906295</v>
+        <v>0.02071977530227854</v>
       </c>
       <c r="D14">
-        <v>7.497971326538217</v>
+        <v>5.096101687443191</v>
       </c>
       <c r="E14">
-        <v>3.319562404248289</v>
+        <v>2.256187284950998</v>
       </c>
       <c r="F14">
-        <v>0.6029978536042653</v>
+        <v>0.4098359736854425</v>
       </c>
       <c r="G14">
-        <v>6.451660102866185</v>
+        <v>4.384961545619309</v>
       </c>
       <c r="H14">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I14">
-        <v>63.59075161348474</v>
+        <v>43.22034887707151</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>26.71234384899728</v>
+        <v>18.15542026449546</v>
       </c>
       <c r="C15">
-        <v>0.01354903027513909</v>
+        <v>0.009208789023234907</v>
       </c>
       <c r="D15">
-        <v>4.089802541748119</v>
+        <v>2.779691829514467</v>
       </c>
       <c r="E15">
-        <v>2.074726502655181</v>
+        <v>1.410117053094374</v>
       </c>
       <c r="F15">
-        <v>0.4823982828834124</v>
+        <v>0.3278687789483539</v>
       </c>
       <c r="G15">
-        <v>9.032324144012657</v>
+        <v>6.138946163867033</v>
       </c>
       <c r="H15">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I15">
-        <v>42.48677985657422</v>
+        <v>28.87673759897937</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>21.49860926642192</v>
+        <v>14.61183221287104</v>
       </c>
       <c r="C16">
-        <v>0.02596897469401659</v>
+        <v>0.01765017896120024</v>
       </c>
       <c r="D16">
-        <v>4.771436298706138</v>
+        <v>3.242973801100213</v>
       </c>
       <c r="E16">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F16">
-        <v>0.2653190555858769</v>
+        <v>0.1803278284215947</v>
       </c>
       <c r="G16">
-        <v>10.32265616458589</v>
+        <v>7.015938472990893</v>
       </c>
       <c r="H16">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I16">
-        <v>37.58804321679281</v>
+        <v>25.5472423303097</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>13.64582384575283</v>
+        <v>9.274576135115755</v>
       </c>
       <c r="C17">
-        <v>0.03500166154410932</v>
+        <v>0.02378937164335685</v>
       </c>
       <c r="D17">
-        <v>2.385718149353069</v>
+        <v>1.621486900550106</v>
       </c>
       <c r="E17">
-        <v>0.2074726502655181</v>
+        <v>0.1410117053094374</v>
       </c>
       <c r="F17">
-        <v>0.5547580253159241</v>
+        <v>0.377049095790607</v>
       </c>
       <c r="G17">
-        <v>10.32265616458589</v>
+        <v>7.015938472990893</v>
       </c>
       <c r="I17">
-        <v>27.15143049681734</v>
+        <v>18.45385168140016</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>9.333228573746043</v>
+        <v>6.343460092414072</v>
       </c>
       <c r="C18">
-        <v>0.03048531811906295</v>
+        <v>0.02071977530227854</v>
       </c>
       <c r="D18">
-        <v>2.385718149353069</v>
+        <v>1.621486900550106</v>
       </c>
       <c r="E18">
-        <v>0.2074726502655181</v>
+        <v>0.1410117053094374</v>
       </c>
       <c r="F18">
-        <v>0.2894389697300475</v>
+        <v>0.1967212673690124</v>
       </c>
       <c r="G18">
-        <v>14.1936522263056</v>
+        <v>9.646915400362481</v>
       </c>
       <c r="I18">
-        <v>26.43999588751934</v>
+        <v>17.97031514130739</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>9.655064041806241</v>
+        <v>6.562200095600768</v>
       </c>
       <c r="C19">
-        <v>0.02596897469401659</v>
+        <v>0.01765017896120024</v>
       </c>
       <c r="D19">
-        <v>3.4081687847901</v>
+        <v>2.316409857928723</v>
       </c>
       <c r="E19">
-        <v>1.03736325132759</v>
+        <v>0.7050585265471869</v>
       </c>
       <c r="F19">
-        <v>0.5065181970275828</v>
+        <v>0.3442622178957715</v>
       </c>
       <c r="G19">
-        <v>11.61298818515913</v>
+        <v>7.892930782114752</v>
       </c>
       <c r="I19">
-        <v>26.24607143480466</v>
+        <v>17.8385116590484</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>16.5423430582947</v>
+        <v>11.24323616379599</v>
       </c>
       <c r="C20">
-        <v>0.01580720198766227</v>
+        <v>0.01074358719377405</v>
       </c>
       <c r="D20">
-        <v>5.112253177185147</v>
+        <v>3.474614786893084</v>
       </c>
       <c r="E20">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F20">
-        <v>1.013036394055166</v>
+        <v>0.6885244357915431</v>
       </c>
       <c r="G20">
-        <v>14.1936522263056</v>
+        <v>9.646915400362481</v>
       </c>
       <c r="I20">
-        <v>37.49951000862483</v>
+        <v>25.48706948996518</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>38.36278779277683</v>
+        <v>26.07380837985371</v>
       </c>
       <c r="C21">
-        <v>0.01354903027513909</v>
+        <v>0.009208789023234907</v>
       </c>
       <c r="D21">
-        <v>11.92859074676534</v>
+        <v>8.107434502750532</v>
       </c>
       <c r="E21">
-        <v>7.88396071008969</v>
+        <v>5.358444801758622</v>
       </c>
       <c r="F21">
-        <v>1.736633818380284</v>
+        <v>1.180327604214074</v>
       </c>
       <c r="G21">
-        <v>37.41962859662387</v>
+        <v>25.43277696459198</v>
       </c>
       <c r="H21">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I21">
-        <v>97.42678620091358</v>
+        <v>66.21748576222861</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>68.29348632237621</v>
+        <v>46.41662867621609</v>
       </c>
       <c r="C22">
-        <v>0.04516343425046363</v>
+        <v>0.03069596341078302</v>
       </c>
       <c r="D22">
-        <v>21.47146334417763</v>
+        <v>14.59338210495096</v>
       </c>
       <c r="E22">
-        <v>20.33231972602078</v>
+        <v>13.81914712032487</v>
       </c>
       <c r="F22">
-        <v>2.894389697300474</v>
+        <v>1.967212673690124</v>
       </c>
       <c r="G22">
-        <v>58.06494092579568</v>
+        <v>39.46465391057373</v>
       </c>
       <c r="H22">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I22">
-        <v>171.5099409799334</v>
+        <v>116.5691440493488</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>94.55526051608919</v>
+        <v>64.26581293625019</v>
       </c>
       <c r="C23">
-        <v>0.02258171712523182</v>
+        <v>0.01534798170539151</v>
       </c>
       <c r="D23">
-        <v>14.31430889611841</v>
+        <v>9.728921403300632</v>
       </c>
       <c r="E23">
-        <v>17.01275732177249</v>
+        <v>11.56295983537386</v>
       </c>
       <c r="F23">
-        <v>3.425027808472227</v>
+        <v>2.327868330533313</v>
       </c>
       <c r="G23">
-        <v>52.9036128435027</v>
+        <v>35.95668467407831</v>
       </c>
       <c r="H23">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I23">
-        <v>183.0499041631046</v>
+        <v>124.4124423616061</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>110.6470339190996</v>
+        <v>75.20281309558483</v>
       </c>
       <c r="C24">
-        <v>0.02709806055027818</v>
+        <v>0.01841757804646981</v>
       </c>
       <c r="D24">
-        <v>17.72247768090852</v>
+        <v>12.04533126122936</v>
       </c>
       <c r="E24">
-        <v>7.469015409558653</v>
+        <v>5.076421391139747</v>
       </c>
       <c r="F24">
-        <v>3.642107035769762</v>
+        <v>2.475409281060071</v>
       </c>
       <c r="G24">
-        <v>73.5489251726745</v>
+        <v>49.9885616200601</v>
       </c>
       <c r="H24">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I24">
-        <v>213.7097413265808</v>
+        <v>145.2508319874121</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>89.34152593351384</v>
+        <v>60.72222488462578</v>
       </c>
       <c r="C25">
-        <v>0.05532520695681795</v>
+        <v>0.03760255517820921</v>
       </c>
       <c r="D25">
-        <v>23.17554773657266</v>
+        <v>15.75158703391531</v>
       </c>
       <c r="E25">
-        <v>5.601761557168988</v>
+        <v>3.807316043354809</v>
       </c>
       <c r="F25">
-        <v>4.655143429824929</v>
+        <v>3.163933716851616</v>
       </c>
       <c r="G25">
-        <v>86.45224537840684</v>
+        <v>58.75848471129877</v>
       </c>
       <c r="H25">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I25">
-        <v>209.6080912664538</v>
+        <v>142.4630878253703</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>91.46564002271121</v>
+        <v>62.16590890565795</v>
       </c>
       <c r="C26">
-        <v>0.0609706362381259</v>
+        <v>0.04143955060455708</v>
       </c>
       <c r="D26">
-        <v>22.15309710113563</v>
+        <v>15.0566640765367</v>
       </c>
       <c r="E26">
-        <v>3.319562404248289</v>
+        <v>2.256187284950998</v>
       </c>
       <c r="F26">
-        <v>6.078218364330996</v>
+        <v>4.13114661474926</v>
       </c>
       <c r="G26">
-        <v>89.03290941955338</v>
+        <v>60.51246932954642</v>
       </c>
       <c r="H26">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I26">
-        <v>212.9267530082419</v>
+        <v>144.7186629624103</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>89.85646268241024</v>
+        <v>61.07220888972449</v>
       </c>
       <c r="C27">
-        <v>0.07339058065700341</v>
+        <v>0.04988094054252241</v>
       </c>
       <c r="D27">
-        <v>19.76737895178258</v>
+        <v>13.43517717598659</v>
       </c>
       <c r="E27">
-        <v>2.697144453451737</v>
+        <v>1.833152169022686</v>
       </c>
       <c r="F27">
-        <v>5.041062056131657</v>
+        <v>3.426228740010298</v>
       </c>
       <c r="G27">
-        <v>82.58124931668709</v>
+        <v>56.12750778392714</v>
       </c>
       <c r="H27">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I27">
-        <v>200.7514075951422</v>
+        <v>136.4435181795417</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>91.72310839715935</v>
+        <v>62.34090090820728</v>
       </c>
       <c r="C28">
-        <v>0.05645429281307954</v>
+        <v>0.03836995426347878</v>
       </c>
       <c r="D28">
-        <v>17.3816608024295</v>
+        <v>11.81369027543649</v>
       </c>
       <c r="E28">
-        <v>3.941980355044845</v>
+        <v>2.679222400879311</v>
       </c>
       <c r="F28">
-        <v>4.2692248035182</v>
+        <v>2.901638693692932</v>
       </c>
       <c r="G28">
-        <v>60.6456049669421</v>
+        <v>41.2186385288215</v>
       </c>
       <c r="H28">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I28">
-        <v>179.0792951959387</v>
+        <v>121.7137621217748</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>97.06557716695883</v>
+        <v>65.97198496110639</v>
       </c>
       <c r="C29">
-        <v>0.05080886353177159</v>
+        <v>0.03453295883713089</v>
       </c>
       <c r="D29">
-        <v>25.22044900744672</v>
+        <v>17.14143294867254</v>
       </c>
       <c r="E29">
-        <v>5.186816256637959</v>
+        <v>3.525292632735936</v>
       </c>
       <c r="F29">
-        <v>4.872222657122462</v>
+        <v>3.311474667378374</v>
       </c>
       <c r="G29">
-        <v>59.3552729463689</v>
+        <v>40.34164621969767</v>
       </c>
       <c r="H29">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I29">
-        <v>192.8124084760982</v>
+        <v>131.0476657489018</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>85.22203194234318</v>
+        <v>57.92235284383613</v>
       </c>
       <c r="C30">
-        <v>0.04855069181924841</v>
+        <v>0.03299816066659174</v>
       </c>
       <c r="D30">
-        <v>25.56126588592574</v>
+        <v>17.37307393446542</v>
       </c>
       <c r="E30">
-        <v>3.319562404248289</v>
+        <v>2.256187284950998</v>
       </c>
       <c r="F30">
-        <v>4.438064202527393</v>
+        <v>3.016392766324856</v>
       </c>
       <c r="G30">
-        <v>34.8389645554774</v>
+        <v>23.67879234634426</v>
       </c>
       <c r="H30">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I30">
-        <v>154.0815237303607</v>
+        <v>104.7236750968798</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>100.2195647539488</v>
+        <v>68.11563699233599</v>
       </c>
       <c r="C31">
-        <v>0.0372598332566325</v>
+        <v>0.025324169813896</v>
       </c>
       <c r="D31">
-        <v>18.40411143786654</v>
+        <v>12.50861323281511</v>
       </c>
       <c r="E31">
-        <v>3.112089753982771</v>
+        <v>2.115175579641561</v>
       </c>
       <c r="F31">
-        <v>4.341584545950711</v>
+        <v>2.950819010535185</v>
       </c>
       <c r="G31">
-        <v>54.19394486407597</v>
+        <v>36.83367698320221</v>
       </c>
       <c r="H31">
-        <v>1.224532590036434</v>
+        <v>0.8322708005466585</v>
       </c>
       <c r="I31">
-        <v>181.5330877791179</v>
+        <v>123.3815167688906</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>114.5090595358221</v>
+        <v>77.82769313382516</v>
       </c>
       <c r="C32">
-        <v>0.04967977767551</v>
+        <v>0.03376555975186132</v>
       </c>
       <c r="D32">
-        <v>22.15309710113563</v>
+        <v>15.0566640765367</v>
       </c>
       <c r="E32">
-        <v>6.8465974587621</v>
+        <v>4.653386275211432</v>
       </c>
       <c r="F32">
-        <v>4.196865061085687</v>
+        <v>2.852458376850678</v>
       </c>
       <c r="G32">
-        <v>43.87128869949005</v>
+        <v>29.8177385102113</v>
       </c>
       <c r="H32">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I32">
-        <v>192.361307187993</v>
+        <v>130.7410684127151</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>125.5801996370933</v>
+        <v>85.35234924344736</v>
       </c>
       <c r="C33">
-        <v>0.0372598332566325</v>
+        <v>0.025324169813896</v>
       </c>
       <c r="D33">
-        <v>16.70002704547149</v>
+        <v>11.35040830385075</v>
       </c>
       <c r="E33">
-        <v>11.61846841486902</v>
+        <v>7.896655497328492</v>
       </c>
       <c r="F33">
-        <v>3.425027808472227</v>
+        <v>2.327868330533313</v>
       </c>
       <c r="G33">
-        <v>21.93564434974503</v>
+        <v>14.90886925510565</v>
       </c>
       <c r="H33">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I33">
-        <v>179.8680756309247</v>
+        <v>122.2498678403346</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>131.0514025941169</v>
+        <v>89.07092929762108</v>
       </c>
       <c r="C34">
-        <v>0.02596897469401659</v>
+        <v>0.01765017896120024</v>
       </c>
       <c r="D34">
-        <v>19.08574519482455</v>
+        <v>12.97189520440085</v>
       </c>
       <c r="E34">
-        <v>14.93803081911731</v>
+        <v>10.15284278227949</v>
       </c>
       <c r="F34">
-        <v>2.31551175784038</v>
+        <v>1.573770138952099</v>
       </c>
       <c r="G34">
-        <v>11.61298818515913</v>
+        <v>7.892930782114752</v>
       </c>
       <c r="H34">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I34">
-        <v>179.4378250557644</v>
+        <v>121.9574419845117</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>91.9162096779955</v>
+        <v>62.47214491011928</v>
       </c>
       <c r="C35">
-        <v>0.02371080298149341</v>
+        <v>0.01611538079066109</v>
       </c>
       <c r="D35">
-        <v>15.67757641003445</v>
+        <v>10.65548534647212</v>
       </c>
       <c r="E35">
-        <v>11.20352311433798</v>
+        <v>7.614632086709618</v>
       </c>
       <c r="F35">
-        <v>1.350715192073554</v>
+        <v>0.9180325810553913</v>
       </c>
       <c r="G35">
-        <v>19.35498030859853</v>
+        <v>13.15488463685794</v>
       </c>
       <c r="H35">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I35">
-        <v>139.9348930360337</v>
+        <v>95.10871854218722</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>81.36000632562067</v>
+        <v>55.2974728055958</v>
       </c>
       <c r="C36">
-        <v>0.01580720198766227</v>
+        <v>0.01074358719377405</v>
       </c>
       <c r="D36">
-        <v>10.56532323284931</v>
+        <v>7.18087055957904</v>
       </c>
       <c r="E36">
-        <v>12.03341371540005</v>
+        <v>8.178678907947367</v>
       </c>
       <c r="F36">
-        <v>1.061276222343508</v>
+        <v>0.7213113136863789</v>
       </c>
       <c r="G36">
-        <v>18.06464828802531</v>
+        <v>12.27789232773407</v>
       </c>
       <c r="H36">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I36">
-        <v>123.6719235282435</v>
+        <v>84.05536254199154</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>65.07513164177414</v>
+        <v>44.22922864434917</v>
       </c>
       <c r="C37">
-        <v>0.01580720198766227</v>
+        <v>0.01074358719377405</v>
       </c>
       <c r="D37">
-        <v>11.58777386828633</v>
+        <v>7.875793516957655</v>
       </c>
       <c r="E37">
-        <v>6.639124808496578</v>
+        <v>4.512374569901995</v>
       </c>
       <c r="F37">
-        <v>0.9406766516226541</v>
+        <v>0.6393441189492902</v>
       </c>
       <c r="G37">
-        <v>11.61298818515913</v>
+        <v>7.892930782114752</v>
       </c>
       <c r="H37">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I37">
-        <v>96.19804438133619</v>
+        <v>65.3823540996124</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>50.07759883016843</v>
+        <v>34.03594449584931</v>
       </c>
       <c r="C38">
-        <v>0.02709806055027818</v>
+        <v>0.01841757804646981</v>
       </c>
       <c r="D38">
-        <v>6.8163375695802</v>
+        <v>4.632819715857446</v>
       </c>
       <c r="E38">
-        <v>3.319562404248289</v>
+        <v>2.256187284950998</v>
       </c>
       <c r="F38">
-        <v>0.6994775101809475</v>
+        <v>0.4754097294751131</v>
       </c>
       <c r="G38">
-        <v>11.61298818515913</v>
+        <v>7.892930782114752</v>
       </c>
       <c r="H38">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I38">
-        <v>72.71633357189212</v>
+        <v>49.42267902636697</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>31.28240749545226</v>
+        <v>21.26152830974647</v>
       </c>
       <c r="C39">
-        <v>0.02145263126897022</v>
+        <v>0.01458058262012193</v>
       </c>
       <c r="D39">
-        <v>4.771436298706138</v>
+        <v>3.242973801100213</v>
       </c>
       <c r="E39">
-        <v>1.452308551858627</v>
+        <v>0.9870819371660615</v>
       </c>
       <c r="F39">
-        <v>0.3617987121625592</v>
+        <v>0.2459015842112655</v>
       </c>
       <c r="G39">
-        <v>7.741992123439425</v>
+        <v>5.261953854743168</v>
       </c>
       <c r="H39">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I39">
-        <v>45.71303131889041</v>
+        <v>31.06950478962375</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>23.75145754284338</v>
+        <v>16.14301223517788</v>
       </c>
       <c r="C40">
-        <v>0.04629252010672522</v>
+        <v>0.03146336249605259</v>
       </c>
       <c r="D40">
-        <v>3.748985663269108</v>
+        <v>2.548050843721596</v>
       </c>
       <c r="E40">
-        <v>0.8298906010620722</v>
+        <v>0.5640468212377494</v>
       </c>
       <c r="F40">
-        <v>0.3376787980183886</v>
+        <v>0.2295081452638478</v>
       </c>
       <c r="G40">
-        <v>14.1936522263056</v>
+        <v>9.646915400362481</v>
       </c>
       <c r="H40">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I40">
-        <v>43.07122836361012</v>
+        <v>29.2739662483325</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>16.99291271357901</v>
+        <v>11.54947216825735</v>
       </c>
       <c r="C41">
-        <v>0.03500166154410932</v>
+        <v>0.02378937164335685</v>
       </c>
       <c r="D41">
-        <v>2.385718149353069</v>
+        <v>1.621486900550106</v>
       </c>
       <c r="E41">
-        <v>0.2074726502655181</v>
+        <v>0.1410117053094374</v>
       </c>
       <c r="F41">
-        <v>0.6029978536042653</v>
+        <v>0.4098359736854425</v>
       </c>
       <c r="G41">
-        <v>14.1936522263056</v>
+        <v>9.646915400362481</v>
       </c>
       <c r="H41">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I41">
-        <v>34.49939076065399</v>
+        <v>23.44799623984462</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>12.55158325434813</v>
+        <v>8.530860124280997</v>
       </c>
       <c r="C42">
-        <v>0.02032354541270864</v>
+        <v>0.01381318353485236</v>
       </c>
       <c r="D42">
-        <v>3.748985663269108</v>
+        <v>2.548050843721596</v>
       </c>
       <c r="E42">
-        <v>0.4149453005310361</v>
+        <v>0.2820234106188747</v>
       </c>
       <c r="F42">
-        <v>0.3135588838742179</v>
+        <v>0.2131147063164301</v>
       </c>
       <c r="G42">
-        <v>12.90332020573237</v>
+        <v>8.769923091238619</v>
       </c>
       <c r="I42">
-        <v>29.95271685316757</v>
+        <v>20.35778535971137</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>9.848165322642378</v>
+        <v>6.693444097512783</v>
       </c>
       <c r="C43">
-        <v>0.01806537370018545</v>
+        <v>0.01227838536431321</v>
       </c>
       <c r="D43">
-        <v>3.748985663269108</v>
+        <v>2.548050843721596</v>
       </c>
       <c r="E43">
-        <v>0.4149453005310361</v>
+        <v>0.2820234106188747</v>
       </c>
       <c r="F43">
-        <v>0.3859186263067298</v>
+        <v>0.2622950231586831</v>
       </c>
       <c r="G43">
-        <v>18.06464828802531</v>
+        <v>12.27789232773407</v>
       </c>
       <c r="H43">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I43">
-        <v>32.56236408047718</v>
+        <v>22.13146880814676</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>16.2205075902345</v>
+        <v>11.02449616060929</v>
       </c>
       <c r="C44">
-        <v>0.01467811613140068</v>
+        <v>0.00997618810850448</v>
       </c>
       <c r="D44">
-        <v>4.089802541748119</v>
+        <v>2.779691829514467</v>
       </c>
       <c r="E44">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F44">
-        <v>1.061276222343508</v>
+        <v>0.7213113136863789</v>
       </c>
       <c r="G44">
-        <v>18.06464828802531</v>
+        <v>12.27789232773407</v>
       </c>
       <c r="I44">
-        <v>40.07333070927939</v>
+        <v>27.23640293558102</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>38.55588907361295</v>
+        <v>26.20505238176574</v>
       </c>
       <c r="C45">
-        <v>0.0124199444188775</v>
+        <v>0.008441389937965331</v>
       </c>
       <c r="D45">
-        <v>6.475520691101187</v>
+        <v>4.401178730064576</v>
       </c>
       <c r="E45">
-        <v>6.639124808496578</v>
+        <v>4.512374569901995</v>
       </c>
       <c r="F45">
-        <v>2.31551175784038</v>
+        <v>1.573770138952099</v>
       </c>
       <c r="G45">
-        <v>38.70996061719707</v>
+        <v>26.30976927371587</v>
       </c>
       <c r="H45">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I45">
-        <v>92.87169790467189</v>
+        <v>63.12155592441113</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>70.48196750518564</v>
+        <v>47.9040606978856</v>
       </c>
       <c r="C46">
-        <v>0.0124199444188775</v>
+        <v>0.008441389937965331</v>
       </c>
       <c r="D46">
-        <v>13.9734920176394</v>
+        <v>9.497280417507765</v>
       </c>
       <c r="E46">
-        <v>20.33231972602078</v>
+        <v>13.81914712032487</v>
       </c>
       <c r="F46">
-        <v>2.942629525588814</v>
+        <v>1.999999551584959</v>
       </c>
       <c r="G46">
-        <v>76.12958921382096</v>
+        <v>51.74254623830782</v>
       </c>
       <c r="H46">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I46">
-        <v>184.1989599566842</v>
+        <v>125.1934142956948</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>96.22880495000226</v>
+        <v>65.403260952821</v>
       </c>
       <c r="C47">
-        <v>0.01919445955644704</v>
+        <v>0.01304578444958278</v>
       </c>
       <c r="D47">
-        <v>17.72247768090852</v>
+        <v>12.04533126122936</v>
       </c>
       <c r="E47">
-        <v>16.18286672071042</v>
+        <v>10.99891301413611</v>
       </c>
       <c r="F47">
-        <v>3.063229096309667</v>
+        <v>2.081966746322048</v>
       </c>
       <c r="G47">
-        <v>61.9359369875154</v>
+        <v>42.09563083794534</v>
       </c>
       <c r="H47">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I47">
-        <v>195.7239584370197</v>
+        <v>133.0265416371585</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>106.2057044598687</v>
+        <v>72.18420105160844</v>
       </c>
       <c r="C48">
-        <v>0.02822714640653977</v>
+        <v>0.01918497713173939</v>
       </c>
       <c r="D48">
-        <v>20.44901270874059</v>
+        <v>13.89845914757234</v>
       </c>
       <c r="E48">
-        <v>8.298906010620723</v>
+        <v>5.640468212377495</v>
       </c>
       <c r="F48">
-        <v>3.786826520634785</v>
+        <v>2.573769914744579</v>
       </c>
       <c r="G48">
-        <v>64.51660102866182</v>
+        <v>43.84961545619305</v>
       </c>
       <c r="H48">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I48">
-        <v>204.0199974289551</v>
+        <v>138.6650612399556</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>89.34152593351384</v>
+        <v>60.72222488462578</v>
       </c>
       <c r="C49">
-        <v>0.05532520695681795</v>
+        <v>0.03760255517820921</v>
       </c>
       <c r="D49">
-        <v>23.17554773657266</v>
+        <v>15.75158703391531</v>
       </c>
       <c r="E49">
-        <v>5.601761557168988</v>
+        <v>3.807316043354809</v>
       </c>
       <c r="F49">
-        <v>4.655143429824929</v>
+        <v>3.163933716851616</v>
       </c>
       <c r="G49">
-        <v>86.45224537840684</v>
+        <v>58.75848471129877</v>
       </c>
       <c r="H49">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I49">
-        <v>209.6080912664538</v>
+        <v>142.4630878253703</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>60.45973688080172</v>
+        <v>88.95532337184162</v>
       </c>
       <c r="C2">
-        <v>0.04988094054252241</v>
+        <v>0.07339058065700341</v>
       </c>
       <c r="D2">
-        <v>16.67815097708681</v>
+        <v>24.5388152504887</v>
       </c>
       <c r="E2">
-        <v>2.256187284950998</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F2">
-        <v>3.868851591590576</v>
+        <v>5.692299738024263</v>
       </c>
       <c r="G2">
-        <v>50.86555392918397</v>
+        <v>74.83925719324773</v>
       </c>
       <c r="H2">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I2">
-        <v>134.6222393644481</v>
+        <v>198.071732586527</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>62.86587691585534</v>
+        <v>92.49551352050386</v>
       </c>
       <c r="C3">
-        <v>0.0437417478603658</v>
+        <v>0.06435789380691068</v>
       </c>
       <c r="D3">
-        <v>15.28830506232957</v>
+        <v>22.49391397961465</v>
       </c>
       <c r="E3">
-        <v>2.256187284950998</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F3">
-        <v>3.032786205272274</v>
+        <v>4.462184116671565</v>
       </c>
       <c r="G3">
-        <v>43.84961545619305</v>
+        <v>64.51660102866182</v>
       </c>
       <c r="H3">
-        <v>0.6103319204008828</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I3">
-        <v>127.9468445928625</v>
+        <v>188.2501235095338</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>66.27822096556774</v>
+        <v>97.51614682224316</v>
       </c>
       <c r="C4">
-        <v>0.04681134420144411</v>
+        <v>0.06887423723195704</v>
       </c>
       <c r="D4">
-        <v>15.0566640765367</v>
+        <v>22.15309710113563</v>
       </c>
       <c r="E4">
-        <v>2.115175579641561</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F4">
-        <v>3.426228740010298</v>
+        <v>5.041062056131657</v>
       </c>
       <c r="G4">
-        <v>39.46465391057373</v>
+        <v>58.06494092579568</v>
       </c>
       <c r="H4">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I4">
-        <v>126.9426018168959</v>
+        <v>186.7725659565451</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>65.92823696046904</v>
+        <v>97.00121007334681</v>
       </c>
       <c r="C5">
-        <v>0.03453295883713089</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D5">
-        <v>13.89845914757234</v>
+        <v>20.44901270874059</v>
       </c>
       <c r="E5">
-        <v>2.115175579641561</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F5">
-        <v>3.459015617905134</v>
+        <v>5.089301884419998</v>
       </c>
       <c r="G5">
-        <v>29.8177385102113</v>
+        <v>43.87128869949005</v>
       </c>
       <c r="H5">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I5">
-        <v>115.6970365349281</v>
+        <v>170.2267960315314</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>68.15938499297332</v>
+        <v>100.2839318475609</v>
       </c>
       <c r="C6">
-        <v>0.04143955060455708</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D6">
-        <v>16.44650999129394</v>
+        <v>24.19799837200969</v>
       </c>
       <c r="E6">
-        <v>2.679222400879311</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F6">
-        <v>2.967212449482603</v>
+        <v>4.365704460094883</v>
       </c>
       <c r="G6">
-        <v>31.57172312845901</v>
+        <v>46.45195274063652</v>
       </c>
       <c r="H6">
-        <v>0.3329083202186633</v>
+        <v>0.4898130360145737</v>
       </c>
       <c r="I6">
-        <v>122.1984008339114</v>
+        <v>179.7923514475996</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>69.55932101336816</v>
+        <v>102.3436788431462</v>
       </c>
       <c r="C7">
-        <v>0.03606775700767004</v>
+        <v>0.05306703524429477</v>
       </c>
       <c r="D7">
-        <v>17.14143294867254</v>
+        <v>25.22044900744672</v>
       </c>
       <c r="E7">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F7">
-        <v>2.606556792639413</v>
+        <v>3.835066348923127</v>
       </c>
       <c r="G7">
-        <v>25.43277696459198</v>
+        <v>37.41962859662387</v>
       </c>
       <c r="H7">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I7">
-        <v>118.0356675323234</v>
+        <v>173.6676591141951</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>76.20901711024355</v>
+        <v>112.1274770721766</v>
       </c>
       <c r="C8">
-        <v>0.03990475243401792</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D8">
-        <v>16.21486900550106</v>
+        <v>23.85718149353069</v>
       </c>
       <c r="E8">
-        <v>4.79439798052087</v>
+        <v>7.054070109027623</v>
       </c>
       <c r="F8">
-        <v>2.836064937903262</v>
+        <v>4.172745146941517</v>
       </c>
       <c r="G8">
-        <v>16.66285387335337</v>
+        <v>24.51630839089151</v>
       </c>
       <c r="H8">
-        <v>0.6103319204008828</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I8">
-        <v>117.367439580357</v>
+        <v>172.6844852431202</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>84.08365722496447</v>
+        <v>123.7135539223441</v>
       </c>
       <c r="C9">
-        <v>0.03376555975186132</v>
+        <v>0.04967977767551</v>
       </c>
       <c r="D9">
-        <v>15.51994604812244</v>
+        <v>22.83473085809366</v>
       </c>
       <c r="E9">
-        <v>8.742725729185118</v>
+        <v>12.86330431646213</v>
       </c>
       <c r="F9">
-        <v>2.655737109481668</v>
+        <v>3.907426091355639</v>
       </c>
       <c r="G9">
-        <v>16.66285387335337</v>
+        <v>24.51630839089151</v>
       </c>
       <c r="H9">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I9">
-        <v>128.087078585114</v>
+        <v>188.4564518988395</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>80.80255717716415</v>
+        <v>118.8860219014409</v>
       </c>
       <c r="C10">
-        <v>0.03836995426347878</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D10">
-        <v>19.22620182080841</v>
+        <v>28.28780091375781</v>
       </c>
       <c r="E10">
-        <v>10.57587789820781</v>
+        <v>15.56044876991387</v>
       </c>
       <c r="F10">
-        <v>1.426229188425339</v>
+        <v>2.098432530542844</v>
       </c>
       <c r="G10">
-        <v>12.27789232773407</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="H10">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I10">
-        <v>124.5135825267126</v>
+        <v>183.1987132145012</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>58.44732885148417</v>
+        <v>85.99443706568766</v>
       </c>
       <c r="C11">
-        <v>0.03146336249605259</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D11">
-        <v>13.66681816177947</v>
+        <v>20.10819583026158</v>
       </c>
       <c r="E11">
-        <v>8.460702318566245</v>
+        <v>12.44835901593109</v>
       </c>
       <c r="F11">
-        <v>0.7377047526337963</v>
+        <v>1.085396136487678</v>
       </c>
       <c r="G11">
-        <v>10.52390770948634</v>
+        <v>15.48398424687885</v>
       </c>
       <c r="H11">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I11">
-        <v>92.0343793165554</v>
+        <v>135.4115713333609</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>48.86651671190707</v>
+        <v>71.89804356465054</v>
       </c>
       <c r="C12">
-        <v>0.03453295883713089</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D12">
-        <v>12.04533126122936</v>
+        <v>17.72247768090852</v>
       </c>
       <c r="E12">
-        <v>6.627550149543556</v>
+        <v>9.751214562479355</v>
       </c>
       <c r="F12">
-        <v>0.6557375578967077</v>
+        <v>0.9647965657668247</v>
       </c>
       <c r="G12">
-        <v>13.15488463685794</v>
+        <v>19.35498030859853</v>
       </c>
       <c r="H12">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I12">
-        <v>81.60649215641753</v>
+        <v>120.0688635699453</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>40.33565658762606</v>
+        <v>59.34646031030243</v>
       </c>
       <c r="C13">
-        <v>0.02302197255808727</v>
+        <v>0.03387257568784773</v>
       </c>
       <c r="D13">
-        <v>9.728921403300632</v>
+        <v>14.31430889611841</v>
       </c>
       <c r="E13">
-        <v>4.93540968583031</v>
+        <v>7.261542759293137</v>
       </c>
       <c r="F13">
-        <v>0.3278687789483539</v>
+        <v>0.4823982828834124</v>
       </c>
       <c r="G13">
-        <v>6.138946163867033</v>
+        <v>9.032324144012657</v>
       </c>
       <c r="H13">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I13">
-        <v>61.60079403220336</v>
+        <v>90.63417798030275</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>30.88608844996096</v>
+        <v>45.44316809010144</v>
       </c>
       <c r="C14">
-        <v>0.02071977530227854</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D14">
-        <v>5.096101687443191</v>
+        <v>7.497971326538217</v>
       </c>
       <c r="E14">
-        <v>2.256187284950998</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F14">
-        <v>0.4098359736854425</v>
+        <v>0.6029978536042653</v>
       </c>
       <c r="G14">
-        <v>4.384961545619309</v>
+        <v>6.451660102866185</v>
       </c>
       <c r="H14">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I14">
-        <v>43.22034887707151</v>
+        <v>63.59075161348474</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>18.15542026449546</v>
+        <v>26.71234384899728</v>
       </c>
       <c r="C15">
-        <v>0.009208789023234907</v>
+        <v>0.01354903027513909</v>
       </c>
       <c r="D15">
-        <v>2.779691829514467</v>
+        <v>4.089802541748119</v>
       </c>
       <c r="E15">
-        <v>1.410117053094374</v>
+        <v>2.074726502655181</v>
       </c>
       <c r="F15">
-        <v>0.3278687789483539</v>
+        <v>0.4823982828834124</v>
       </c>
       <c r="G15">
-        <v>6.138946163867033</v>
+        <v>9.032324144012657</v>
       </c>
       <c r="H15">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I15">
-        <v>28.87673759897937</v>
+        <v>42.48677985657422</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>14.61183221287104</v>
+        <v>21.49860926642192</v>
       </c>
       <c r="C16">
-        <v>0.01765017896120024</v>
+        <v>0.02596897469401659</v>
       </c>
       <c r="D16">
-        <v>3.242973801100213</v>
+        <v>4.771436298706138</v>
       </c>
       <c r="E16">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F16">
-        <v>0.1803278284215947</v>
+        <v>0.2653190555858769</v>
       </c>
       <c r="G16">
-        <v>7.015938472990893</v>
+        <v>10.32265616458589</v>
       </c>
       <c r="H16">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I16">
-        <v>25.5472423303097</v>
+        <v>37.58804321679281</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>9.274576135115755</v>
+        <v>13.64582384575283</v>
       </c>
       <c r="C17">
-        <v>0.02378937164335685</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D17">
-        <v>1.621486900550106</v>
+        <v>2.385718149353069</v>
       </c>
       <c r="E17">
-        <v>0.1410117053094374</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F17">
-        <v>0.377049095790607</v>
+        <v>0.5547580253159241</v>
       </c>
       <c r="G17">
-        <v>7.015938472990893</v>
+        <v>10.32265616458589</v>
       </c>
       <c r="I17">
-        <v>18.45385168140016</v>
+        <v>27.15143049681734</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>6.343460092414072</v>
+        <v>9.333228573746043</v>
       </c>
       <c r="C18">
-        <v>0.02071977530227854</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D18">
-        <v>1.621486900550106</v>
+        <v>2.385718149353069</v>
       </c>
       <c r="E18">
-        <v>0.1410117053094374</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F18">
-        <v>0.1967212673690124</v>
+        <v>0.2894389697300475</v>
       </c>
       <c r="G18">
-        <v>9.646915400362481</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="I18">
-        <v>17.97031514130739</v>
+        <v>26.43999588751934</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>6.562200095600768</v>
+        <v>9.655064041806241</v>
       </c>
       <c r="C19">
-        <v>0.01765017896120024</v>
+        <v>0.02596897469401659</v>
       </c>
       <c r="D19">
-        <v>2.316409857928723</v>
+        <v>3.4081687847901</v>
       </c>
       <c r="E19">
-        <v>0.7050585265471869</v>
+        <v>1.03736325132759</v>
       </c>
       <c r="F19">
-        <v>0.3442622178957715</v>
+        <v>0.5065181970275828</v>
       </c>
       <c r="G19">
-        <v>7.892930782114752</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="I19">
-        <v>17.8385116590484</v>
+        <v>26.24607143480466</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>11.24323616379599</v>
+        <v>16.5423430582947</v>
       </c>
       <c r="C20">
-        <v>0.01074358719377405</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D20">
-        <v>3.474614786893084</v>
+        <v>5.112253177185147</v>
       </c>
       <c r="E20">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F20">
-        <v>0.6885244357915431</v>
+        <v>1.013036394055166</v>
       </c>
       <c r="G20">
-        <v>9.646915400362481</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="I20">
-        <v>25.48706948996518</v>
+        <v>37.49951000862483</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>26.07380837985371</v>
+        <v>38.36278779277683</v>
       </c>
       <c r="C21">
-        <v>0.009208789023234907</v>
+        <v>0.01354903027513909</v>
       </c>
       <c r="D21">
-        <v>8.107434502750532</v>
+        <v>11.92859074676534</v>
       </c>
       <c r="E21">
-        <v>5.358444801758622</v>
+        <v>7.88396071008969</v>
       </c>
       <c r="F21">
-        <v>1.180327604214074</v>
+        <v>1.736633818380284</v>
       </c>
       <c r="G21">
-        <v>25.43277696459198</v>
+        <v>37.41962859662387</v>
       </c>
       <c r="H21">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I21">
-        <v>66.21748576222861</v>
+        <v>97.42678620091358</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>46.41662867621609</v>
+        <v>68.29348632237621</v>
       </c>
       <c r="C22">
-        <v>0.03069596341078302</v>
+        <v>0.04516343425046363</v>
       </c>
       <c r="D22">
-        <v>14.59338210495096</v>
+        <v>21.47146334417763</v>
       </c>
       <c r="E22">
-        <v>13.81914712032487</v>
+        <v>20.33231972602078</v>
       </c>
       <c r="F22">
-        <v>1.967212673690124</v>
+        <v>2.894389697300474</v>
       </c>
       <c r="G22">
-        <v>39.46465391057373</v>
+        <v>58.06494092579568</v>
       </c>
       <c r="H22">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I22">
-        <v>116.5691440493488</v>
+        <v>171.5099409799334</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>64.26581293625019</v>
+        <v>94.55526051608919</v>
       </c>
       <c r="C23">
-        <v>0.01534798170539151</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D23">
-        <v>9.728921403300632</v>
+        <v>14.31430889611841</v>
       </c>
       <c r="E23">
-        <v>11.56295983537386</v>
+        <v>17.01275732177249</v>
       </c>
       <c r="F23">
-        <v>2.327868330533313</v>
+        <v>3.425027808472227</v>
       </c>
       <c r="G23">
-        <v>35.95668467407831</v>
+        <v>52.9036128435027</v>
       </c>
       <c r="H23">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I23">
-        <v>124.4124423616061</v>
+        <v>183.0499041631046</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>75.20281309558483</v>
+        <v>110.6470339190996</v>
       </c>
       <c r="C24">
-        <v>0.01841757804646981</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D24">
-        <v>12.04533126122936</v>
+        <v>17.72247768090852</v>
       </c>
       <c r="E24">
-        <v>5.076421391139747</v>
+        <v>7.469015409558653</v>
       </c>
       <c r="F24">
-        <v>2.475409281060071</v>
+        <v>3.642107035769762</v>
       </c>
       <c r="G24">
-        <v>49.9885616200601</v>
+        <v>73.5489251726745</v>
       </c>
       <c r="H24">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I24">
-        <v>145.2508319874121</v>
+        <v>213.7097413265808</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>60.72222488462578</v>
+        <v>89.34152593351384</v>
       </c>
       <c r="C25">
-        <v>0.03760255517820921</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D25">
-        <v>15.75158703391531</v>
+        <v>23.17554773657266</v>
       </c>
       <c r="E25">
-        <v>3.807316043354809</v>
+        <v>5.601761557168988</v>
       </c>
       <c r="F25">
-        <v>3.163933716851616</v>
+        <v>4.655143429824929</v>
       </c>
       <c r="G25">
-        <v>58.75848471129877</v>
+        <v>86.45224537840684</v>
       </c>
       <c r="H25">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I25">
-        <v>142.4630878253703</v>
+        <v>209.6080912664538</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>62.16590890565795</v>
+        <v>91.46564002271121</v>
       </c>
       <c r="C26">
-        <v>0.04143955060455708</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D26">
-        <v>15.0566640765367</v>
+        <v>22.15309710113563</v>
       </c>
       <c r="E26">
-        <v>2.256187284950998</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F26">
-        <v>4.13114661474926</v>
+        <v>6.078218364330996</v>
       </c>
       <c r="G26">
-        <v>60.51246932954642</v>
+        <v>89.03290941955338</v>
       </c>
       <c r="H26">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I26">
-        <v>144.7186629624103</v>
+        <v>212.9267530082419</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>61.07220888972449</v>
+        <v>89.85646268241024</v>
       </c>
       <c r="C27">
-        <v>0.04988094054252241</v>
+        <v>0.07339058065700341</v>
       </c>
       <c r="D27">
-        <v>13.43517717598659</v>
+        <v>19.76737895178258</v>
       </c>
       <c r="E27">
-        <v>1.833152169022686</v>
+        <v>2.697144453451737</v>
       </c>
       <c r="F27">
-        <v>3.426228740010298</v>
+        <v>5.041062056131657</v>
       </c>
       <c r="G27">
-        <v>56.12750778392714</v>
+        <v>82.58124931668709</v>
       </c>
       <c r="H27">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I27">
-        <v>136.4435181795417</v>
+        <v>200.7514075951422</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>62.34090090820728</v>
+        <v>91.72310839715935</v>
       </c>
       <c r="C28">
-        <v>0.03836995426347878</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D28">
-        <v>11.81369027543649</v>
+        <v>17.3816608024295</v>
       </c>
       <c r="E28">
-        <v>2.679222400879311</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F28">
-        <v>2.901638693692932</v>
+        <v>4.2692248035182</v>
       </c>
       <c r="G28">
-        <v>41.2186385288215</v>
+        <v>60.6456049669421</v>
       </c>
       <c r="H28">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I28">
-        <v>121.7137621217748</v>
+        <v>179.0792951959387</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>65.97198496110639</v>
+        <v>97.06557716695883</v>
       </c>
       <c r="C29">
-        <v>0.03453295883713089</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D29">
-        <v>17.14143294867254</v>
+        <v>25.22044900744672</v>
       </c>
       <c r="E29">
-        <v>3.525292632735936</v>
+        <v>5.186816256637959</v>
       </c>
       <c r="F29">
-        <v>3.311474667378374</v>
+        <v>4.872222657122462</v>
       </c>
       <c r="G29">
-        <v>40.34164621969767</v>
+        <v>59.3552729463689</v>
       </c>
       <c r="H29">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I29">
-        <v>131.0476657489018</v>
+        <v>192.8124084760982</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>57.92235284383613</v>
+        <v>85.22203194234318</v>
       </c>
       <c r="C30">
-        <v>0.03299816066659174</v>
+        <v>0.04855069181924841</v>
       </c>
       <c r="D30">
-        <v>17.37307393446542</v>
+        <v>25.56126588592574</v>
       </c>
       <c r="E30">
-        <v>2.256187284950998</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F30">
-        <v>3.016392766324856</v>
+        <v>4.438064202527393</v>
       </c>
       <c r="G30">
-        <v>23.67879234634426</v>
+        <v>34.8389645554774</v>
       </c>
       <c r="H30">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I30">
-        <v>104.7236750968798</v>
+        <v>154.0815237303607</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>68.11563699233599</v>
+        <v>100.2195647539488</v>
       </c>
       <c r="C31">
-        <v>0.025324169813896</v>
+        <v>0.0372598332566325</v>
       </c>
       <c r="D31">
-        <v>12.50861323281511</v>
+        <v>18.40411143786654</v>
       </c>
       <c r="E31">
-        <v>2.115175579641561</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F31">
-        <v>2.950819010535185</v>
+        <v>4.341584545950711</v>
       </c>
       <c r="G31">
-        <v>36.83367698320221</v>
+        <v>54.19394486407597</v>
       </c>
       <c r="H31">
-        <v>0.8322708005466585</v>
+        <v>1.224532590036434</v>
       </c>
       <c r="I31">
-        <v>123.3815167688906</v>
+        <v>181.5330877791179</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>77.82769313382516</v>
+        <v>114.5090595358221</v>
       </c>
       <c r="C32">
-        <v>0.03376555975186132</v>
+        <v>0.04967977767551</v>
       </c>
       <c r="D32">
-        <v>15.0566640765367</v>
+        <v>22.15309710113563</v>
       </c>
       <c r="E32">
-        <v>4.653386275211432</v>
+        <v>6.8465974587621</v>
       </c>
       <c r="F32">
-        <v>2.852458376850678</v>
+        <v>4.196865061085687</v>
       </c>
       <c r="G32">
-        <v>29.8177385102113</v>
+        <v>43.87128869949005</v>
       </c>
       <c r="H32">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I32">
-        <v>130.7410684127151</v>
+        <v>192.361307187993</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>85.35234924344736</v>
+        <v>125.5801996370933</v>
       </c>
       <c r="C33">
-        <v>0.025324169813896</v>
+        <v>0.0372598332566325</v>
       </c>
       <c r="D33">
-        <v>11.35040830385075</v>
+        <v>16.70002704547149</v>
       </c>
       <c r="E33">
-        <v>7.896655497328492</v>
+        <v>11.61846841486902</v>
       </c>
       <c r="F33">
-        <v>2.327868330533313</v>
+        <v>3.425027808472227</v>
       </c>
       <c r="G33">
-        <v>14.90886925510565</v>
+        <v>21.93564434974503</v>
       </c>
       <c r="H33">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I33">
-        <v>122.2498678403346</v>
+        <v>179.8680756309247</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>89.07092929762108</v>
+        <v>131.0514025941169</v>
       </c>
       <c r="C34">
-        <v>0.01765017896120024</v>
+        <v>0.02596897469401659</v>
       </c>
       <c r="D34">
-        <v>12.97189520440085</v>
+        <v>19.08574519482455</v>
       </c>
       <c r="E34">
-        <v>10.15284278227949</v>
+        <v>14.93803081911731</v>
       </c>
       <c r="F34">
-        <v>1.573770138952099</v>
+        <v>2.31551175784038</v>
       </c>
       <c r="G34">
-        <v>7.892930782114752</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="H34">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I34">
-        <v>121.9574419845117</v>
+        <v>179.4378250557644</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>62.47214491011928</v>
+        <v>91.9162096779955</v>
       </c>
       <c r="C35">
-        <v>0.01611538079066109</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D35">
-        <v>10.65548534647212</v>
+        <v>15.67757641003445</v>
       </c>
       <c r="E35">
-        <v>7.614632086709618</v>
+        <v>11.20352311433798</v>
       </c>
       <c r="F35">
-        <v>0.9180325810553913</v>
+        <v>1.350715192073554</v>
       </c>
       <c r="G35">
-        <v>13.15488463685794</v>
+        <v>19.35498030859853</v>
       </c>
       <c r="H35">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I35">
-        <v>95.10871854218722</v>
+        <v>139.9348930360337</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>55.2974728055958</v>
+        <v>81.36000632562067</v>
       </c>
       <c r="C36">
-        <v>0.01074358719377405</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D36">
-        <v>7.18087055957904</v>
+        <v>10.56532323284931</v>
       </c>
       <c r="E36">
-        <v>8.178678907947367</v>
+        <v>12.03341371540005</v>
       </c>
       <c r="F36">
-        <v>0.7213113136863789</v>
+        <v>1.061276222343508</v>
       </c>
       <c r="G36">
-        <v>12.27789232773407</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="H36">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I36">
-        <v>84.05536254199154</v>
+        <v>123.6719235282435</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>44.22922864434917</v>
+        <v>65.07513164177414</v>
       </c>
       <c r="C37">
-        <v>0.01074358719377405</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D37">
-        <v>7.875793516957655</v>
+        <v>11.58777386828633</v>
       </c>
       <c r="E37">
-        <v>4.512374569901995</v>
+        <v>6.639124808496578</v>
       </c>
       <c r="F37">
-        <v>0.6393441189492902</v>
+        <v>0.9406766516226541</v>
       </c>
       <c r="G37">
-        <v>7.892930782114752</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="H37">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I37">
-        <v>65.3823540996124</v>
+        <v>96.19804438133619</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>34.03594449584931</v>
+        <v>50.07759883016843</v>
       </c>
       <c r="C38">
-        <v>0.01841757804646981</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D38">
-        <v>4.632819715857446</v>
+        <v>6.8163375695802</v>
       </c>
       <c r="E38">
-        <v>2.256187284950998</v>
+        <v>3.319562404248289</v>
       </c>
       <c r="F38">
-        <v>0.4754097294751131</v>
+        <v>0.6994775101809475</v>
       </c>
       <c r="G38">
-        <v>7.892930782114752</v>
+        <v>11.61298818515913</v>
       </c>
       <c r="H38">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I38">
-        <v>49.42267902636697</v>
+        <v>72.71633357189212</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>21.26152830974647</v>
+        <v>31.28240749545226</v>
       </c>
       <c r="C39">
-        <v>0.01458058262012193</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D39">
-        <v>3.242973801100213</v>
+        <v>4.771436298706138</v>
       </c>
       <c r="E39">
-        <v>0.9870819371660615</v>
+        <v>1.452308551858627</v>
       </c>
       <c r="F39">
-        <v>0.2459015842112655</v>
+        <v>0.3617987121625592</v>
       </c>
       <c r="G39">
-        <v>5.261953854743168</v>
+        <v>7.741992123439425</v>
       </c>
       <c r="H39">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I39">
-        <v>31.06950478962375</v>
+        <v>45.71303131889041</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>16.14301223517788</v>
+        <v>23.75145754284338</v>
       </c>
       <c r="C40">
-        <v>0.03146336249605259</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D40">
-        <v>2.548050843721596</v>
+        <v>3.748985663269108</v>
       </c>
       <c r="E40">
-        <v>0.5640468212377494</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F40">
-        <v>0.2295081452638478</v>
+        <v>0.3376787980183886</v>
       </c>
       <c r="G40">
-        <v>9.646915400362481</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="H40">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I40">
-        <v>29.2739662483325</v>
+        <v>43.07122836361012</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>11.54947216825735</v>
+        <v>16.99291271357901</v>
       </c>
       <c r="C41">
-        <v>0.02378937164335685</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D41">
-        <v>1.621486900550106</v>
+        <v>2.385718149353069</v>
       </c>
       <c r="E41">
-        <v>0.1410117053094374</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F41">
-        <v>0.4098359736854425</v>
+        <v>0.6029978536042653</v>
       </c>
       <c r="G41">
-        <v>9.646915400362481</v>
+        <v>14.1936522263056</v>
       </c>
       <c r="H41">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I41">
-        <v>23.44799623984462</v>
+        <v>34.49939076065399</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>8.530860124280997</v>
+        <v>12.55158325434813</v>
       </c>
       <c r="C42">
-        <v>0.01381318353485236</v>
+        <v>0.02032354541270864</v>
       </c>
       <c r="D42">
-        <v>2.548050843721596</v>
+        <v>3.748985663269108</v>
       </c>
       <c r="E42">
-        <v>0.2820234106188747</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F42">
-        <v>0.2131147063164301</v>
+        <v>0.3135588838742179</v>
       </c>
       <c r="G42">
-        <v>8.769923091238619</v>
+        <v>12.90332020573237</v>
       </c>
       <c r="I42">
-        <v>20.35778535971137</v>
+        <v>29.95271685316757</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>6.693444097512783</v>
+        <v>9.848165322642378</v>
       </c>
       <c r="C43">
-        <v>0.01227838536431321</v>
+        <v>0.01806537370018545</v>
       </c>
       <c r="D43">
-        <v>2.548050843721596</v>
+        <v>3.748985663269108</v>
       </c>
       <c r="E43">
-        <v>0.2820234106188747</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F43">
-        <v>0.2622950231586831</v>
+        <v>0.3859186263067298</v>
       </c>
       <c r="G43">
-        <v>12.27789232773407</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="H43">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I43">
-        <v>22.13146880814676</v>
+        <v>32.56236408047718</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>11.02449616060929</v>
+        <v>16.2205075902345</v>
       </c>
       <c r="C44">
-        <v>0.00997618810850448</v>
+        <v>0.01467811613140068</v>
       </c>
       <c r="D44">
-        <v>2.779691829514467</v>
+        <v>4.089802541748119</v>
       </c>
       <c r="E44">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F44">
-        <v>0.7213113136863789</v>
+        <v>1.061276222343508</v>
       </c>
       <c r="G44">
-        <v>12.27789232773407</v>
+        <v>18.06464828802531</v>
       </c>
       <c r="I44">
-        <v>27.23640293558102</v>
+        <v>40.07333070927939</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>26.20505238176574</v>
+        <v>38.55588907361295</v>
       </c>
       <c r="C45">
-        <v>0.008441389937965331</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D45">
-        <v>4.401178730064576</v>
+        <v>6.475520691101187</v>
       </c>
       <c r="E45">
-        <v>4.512374569901995</v>
+        <v>6.639124808496578</v>
       </c>
       <c r="F45">
-        <v>1.573770138952099</v>
+        <v>2.31551175784038</v>
       </c>
       <c r="G45">
-        <v>26.30976927371587</v>
+        <v>38.70996061719707</v>
       </c>
       <c r="H45">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I45">
-        <v>63.12155592441113</v>
+        <v>92.87169790467189</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>47.9040606978856</v>
+        <v>70.48196750518564</v>
       </c>
       <c r="C46">
-        <v>0.008441389937965331</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D46">
-        <v>9.497280417507765</v>
+        <v>13.9734920176394</v>
       </c>
       <c r="E46">
-        <v>13.81914712032487</v>
+        <v>20.33231972602078</v>
       </c>
       <c r="F46">
-        <v>1.999999551584959</v>
+        <v>2.942629525588814</v>
       </c>
       <c r="G46">
-        <v>51.74254623830782</v>
+        <v>76.12958921382096</v>
       </c>
       <c r="H46">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I46">
-        <v>125.1934142956948</v>
+        <v>184.1989599566842</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>65.403260952821</v>
+        <v>96.22880495000226</v>
       </c>
       <c r="C47">
-        <v>0.01304578444958278</v>
+        <v>0.01919445955644704</v>
       </c>
       <c r="D47">
-        <v>12.04533126122936</v>
+        <v>17.72247768090852</v>
       </c>
       <c r="E47">
-        <v>10.99891301413611</v>
+        <v>16.18286672071042</v>
       </c>
       <c r="F47">
-        <v>2.081966746322048</v>
+        <v>3.063229096309667</v>
       </c>
       <c r="G47">
-        <v>42.09563083794534</v>
+        <v>61.9359369875154</v>
       </c>
       <c r="H47">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I47">
-        <v>133.0265416371585</v>
+        <v>195.7239584370197</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>72.18420105160844</v>
+        <v>106.2057044598687</v>
       </c>
       <c r="C48">
-        <v>0.01918497713173939</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D48">
-        <v>13.89845914757234</v>
+        <v>20.44901270874059</v>
       </c>
       <c r="E48">
-        <v>5.640468212377495</v>
+        <v>8.298906010620723</v>
       </c>
       <c r="F48">
-        <v>2.573769914744579</v>
+        <v>3.786826520634785</v>
       </c>
       <c r="G48">
-        <v>43.84961545619305</v>
+        <v>64.51660102866182</v>
       </c>
       <c r="H48">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I48">
-        <v>138.6650612399556</v>
+        <v>204.0199974289551</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>60.72222488462578</v>
+        <v>89.34152593351384</v>
       </c>
       <c r="C49">
-        <v>0.03760255517820921</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D49">
-        <v>15.75158703391531</v>
+        <v>23.17554773657266</v>
       </c>
       <c r="E49">
-        <v>3.807316043354809</v>
+        <v>5.601761557168988</v>
       </c>
       <c r="F49">
-        <v>3.163933716851616</v>
+        <v>4.655143429824929</v>
       </c>
       <c r="G49">
-        <v>58.75848471129877</v>
+        <v>86.45224537840684</v>
       </c>
       <c r="H49">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I49">
-        <v>142.4630878253703</v>
+        <v>209.6080912664538</v>
       </c>
     </row>
   </sheetData>
